--- a/Code/Data/DJI/Efficient Portfolios with Prediction/Manual Recurrence/input 30/DJI_efficient_portfolios_and_returns_with_prediction_annual.xlsx
+++ b/Code/Data/DJI/Efficient Portfolios with Prediction/Manual Recurrence/input 30/DJI_efficient_portfolios_and_returns_with_prediction_annual.xlsx
@@ -620,94 +620,94 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.2664269655817108</v>
+        <v>0.3145952217563693</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0609238661625732</v>
+        <v>0.01104079637183162</v>
       </c>
       <c r="G2" t="n">
-        <v>0.007745244435288132</v>
+        <v>0.05073211127138756</v>
       </c>
       <c r="H2" t="n">
-        <v>0.06370877826552571</v>
+        <v>0.07431635600181395</v>
       </c>
       <c r="I2" t="n">
-        <v>0.01467159270869602</v>
+        <v>0.002149714607934702</v>
       </c>
       <c r="J2" t="n">
-        <v>0.06825716023181416</v>
+        <v>0.03510953426821439</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0522640427455339</v>
+        <v>0.05646025531858164</v>
       </c>
       <c r="L2" t="n">
-        <v>0.002779499932953204</v>
+        <v>0.02797681642391983</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0714701348399471</v>
+        <v>0.03269399830629983</v>
       </c>
       <c r="N2" t="n">
-        <v>0.01309458319363892</v>
+        <v>0.01423303046546506</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0139536587036042</v>
+        <v>0.01588591380662243</v>
       </c>
       <c r="P2" t="n">
-        <v>0.005214301699051457</v>
+        <v>0.05571419622791312</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.04555105036792057</v>
+        <v>0.07516635118470719</v>
       </c>
       <c r="R2" t="n">
-        <v>0.01479175957595066</v>
+        <v>0.05110814560625712</v>
       </c>
       <c r="S2" t="n">
-        <v>0.06608791055355651</v>
+        <v>0.02622613310046076</v>
       </c>
       <c r="T2" t="n">
-        <v>0.0275356175693702</v>
+        <v>0.002844593270585163</v>
       </c>
       <c r="U2" t="n">
-        <v>0.04200156241478818</v>
+        <v>0.06327082191618072</v>
       </c>
       <c r="V2" t="n">
-        <v>0.006400411220322757</v>
+        <v>0.01239850654725313</v>
       </c>
       <c r="W2" t="n">
-        <v>0.002015090113856366</v>
+        <v>0.01057224710462457</v>
       </c>
       <c r="X2" t="n">
-        <v>0.04145316783573662</v>
+        <v>0.0733953319969831</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.07112451996873012</v>
+        <v>0.02999230129671028</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.02314301768407086</v>
+        <v>0.07386430832686573</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.02464539067985668</v>
+        <v>0.05277865921610199</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.06579385317081493</v>
+        <v>0.02003813315509123</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.01461424904795552</v>
+        <v>0.004802047939912115</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.07407138028964382</v>
+        <v>0.01285759957356396</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.02762724501682969</v>
+        <v>0.07345714341627345</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.006534693064445213</v>
+        <v>0.02435217554572263</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.07252621850752523</v>
+        <v>0.01656277773272259</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.1821186256719819</v>
+        <v>0.08815322733340154</v>
       </c>
     </row>
     <row r="3">
@@ -730,94 +730,94 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.7838096356997151</v>
+        <v>0.9344715665890085</v>
       </c>
       <c r="F3" t="n">
-        <v>0.03206690708701219</v>
+        <v>0.05909514611127195</v>
       </c>
       <c r="G3" t="n">
-        <v>0.06013763754819739</v>
+        <v>0.04418771528105431</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0476154450466116</v>
+        <v>0.06956168801872453</v>
       </c>
       <c r="I3" t="n">
-        <v>0.01045992171910044</v>
+        <v>0.02645636172273387</v>
       </c>
       <c r="J3" t="n">
-        <v>0.05650353871810034</v>
+        <v>0.05920041567270744</v>
       </c>
       <c r="K3" t="n">
-        <v>0.04626276554704412</v>
+        <v>0.01032770672811134</v>
       </c>
       <c r="L3" t="n">
-        <v>0.02371264153892962</v>
+        <v>0.01249839140474953</v>
       </c>
       <c r="M3" t="n">
-        <v>9.5676831195754e-05</v>
+        <v>0.01763192576269204</v>
       </c>
       <c r="N3" t="n">
-        <v>0.05710522538115267</v>
+        <v>0.06469646003098661</v>
       </c>
       <c r="O3" t="n">
-        <v>0.0004206335324737542</v>
+        <v>0.0008581219870612978</v>
       </c>
       <c r="P3" t="n">
-        <v>0.01431338814103712</v>
+        <v>0.02970957191477006</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.04425854683812605</v>
+        <v>0.05079317733590557</v>
       </c>
       <c r="R3" t="n">
-        <v>0.005139869938942971</v>
+        <v>0.02128907860446962</v>
       </c>
       <c r="S3" t="n">
-        <v>0.07175979021848281</v>
+        <v>0.04488700026036511</v>
       </c>
       <c r="T3" t="n">
-        <v>0.01498126850615469</v>
+        <v>0.02108736895118223</v>
       </c>
       <c r="U3" t="n">
-        <v>0.01915600919153337</v>
+        <v>0.0606801072509658</v>
       </c>
       <c r="V3" t="n">
-        <v>0.05836111986618685</v>
+        <v>0.06966026757100023</v>
       </c>
       <c r="W3" t="n">
-        <v>0.009286232905325494</v>
+        <v>0.001091693423977324</v>
       </c>
       <c r="X3" t="n">
-        <v>0.052506452515784</v>
+        <v>0.05621687075144394</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.003631201948954576</v>
+        <v>0.02069200250073037</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.06258868996054991</v>
+        <v>0.005828935349926326</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.0493531129021416</v>
+        <v>0.02196163648367655</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.04069738845362886</v>
+        <v>0.01938013150416044</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.007157436740834491</v>
+        <v>0.04081546978715899</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.03363181455351167</v>
+        <v>0.0665852893912551</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.03698118787626525</v>
+        <v>0.02738318360337715</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.08406032845291839</v>
+        <v>0.0109938542558143</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.05775576803980394</v>
+        <v>0.06643042833972795</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.09893061438497087</v>
+        <v>0.09720123653599541</v>
       </c>
     </row>
     <row r="4">
@@ -840,94 +840,94 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.127208337779898</v>
+        <v>0.1310270981394174</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0430463124445246</v>
+        <v>0.01513571654330885</v>
       </c>
       <c r="G4" t="n">
-        <v>0.09113249940868354</v>
+        <v>0.04401469732513461</v>
       </c>
       <c r="H4" t="n">
-        <v>0.04841058124472109</v>
+        <v>0.06724048050952779</v>
       </c>
       <c r="I4" t="n">
-        <v>0.03378628481342574</v>
+        <v>0.04705383570171421</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0250486944674012</v>
+        <v>0.05926590403941126</v>
       </c>
       <c r="K4" t="n">
-        <v>0.004891300674590345</v>
+        <v>0.00248328042332032</v>
       </c>
       <c r="L4" t="n">
-        <v>0.05975311381425524</v>
+        <v>0.06199293817740385</v>
       </c>
       <c r="M4" t="n">
-        <v>0.01058654879521449</v>
+        <v>0.0386924231596546</v>
       </c>
       <c r="N4" t="n">
-        <v>0.02724005432294899</v>
+        <v>0.0117729207388636</v>
       </c>
       <c r="O4" t="n">
-        <v>0.02269534440727593</v>
+        <v>0.004446459467834887</v>
       </c>
       <c r="P4" t="n">
-        <v>0.01123223339366422</v>
+        <v>0.006627790742865214</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.0009501935068227999</v>
+        <v>0.03098912539422241</v>
       </c>
       <c r="R4" t="n">
-        <v>0.007577680791459035</v>
+        <v>0.06537664155161918</v>
       </c>
       <c r="S4" t="n">
-        <v>0.02477759789678271</v>
+        <v>0.06223511831913051</v>
       </c>
       <c r="T4" t="n">
-        <v>0.0006753118340424926</v>
+        <v>0.001145554369055096</v>
       </c>
       <c r="U4" t="n">
-        <v>0.01158574654191506</v>
+        <v>0.05418751217720585</v>
       </c>
       <c r="V4" t="n">
-        <v>0.07513400471741372</v>
+        <v>0.05073252905864892</v>
       </c>
       <c r="W4" t="n">
-        <v>0.001658605871581171</v>
+        <v>0.0250805328679053</v>
       </c>
       <c r="X4" t="n">
-        <v>0.06190255608300083</v>
+        <v>0.003168064113466442</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.0499809006037379</v>
+        <v>0.06331237295599894</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.0598143948579753</v>
+        <v>0.06240019453035919</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.06767683583206095</v>
+        <v>0.007874292772601401</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.0008067476132861281</v>
+        <v>0.001582187194562716</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.06288695619626247</v>
+        <v>0.06786886926917524</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.03685583561596827</v>
+        <v>0.0292224059400188</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.08413512986938747</v>
+        <v>0.04388175723512243</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.03283419083490808</v>
+        <v>0.01388935439103988</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.04292434354669024</v>
+        <v>0.05832704103082835</v>
       </c>
       <c r="AH4" t="n">
-        <v>-0.375362665731439</v>
+        <v>-0.39586394350955</v>
       </c>
     </row>
     <row r="5">
@@ -950,94 +950,94 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.3994018452877755</v>
+        <v>0.3956098226736129</v>
       </c>
       <c r="F5" t="n">
-        <v>0.05898331082096626</v>
+        <v>0.006066050113336525</v>
       </c>
       <c r="G5" t="n">
-        <v>0.004357075705787597</v>
+        <v>0.06698430044109557</v>
       </c>
       <c r="H5" t="n">
-        <v>0.03773734801755475</v>
+        <v>0.04999123948042146</v>
       </c>
       <c r="I5" t="n">
-        <v>0.02721663562320861</v>
+        <v>0.04117385385572813</v>
       </c>
       <c r="J5" t="n">
-        <v>0.01729867472829387</v>
+        <v>0.03304216494568082</v>
       </c>
       <c r="K5" t="n">
-        <v>0.005150246344401245</v>
+        <v>0.007148137855836431</v>
       </c>
       <c r="L5" t="n">
-        <v>0.04168299331492441</v>
+        <v>0.04293915541416697</v>
       </c>
       <c r="M5" t="n">
-        <v>0.03524592451529346</v>
+        <v>0.01311414153009743</v>
       </c>
       <c r="N5" t="n">
-        <v>0.01126502367246619</v>
+        <v>0.01282703269626556</v>
       </c>
       <c r="O5" t="n">
-        <v>0.001762641271668436</v>
+        <v>0.01756710827621765</v>
       </c>
       <c r="P5" t="n">
-        <v>0.03206006510899168</v>
+        <v>0.001676524958302351</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.07939620964145637</v>
+        <v>0.04027162029745995</v>
       </c>
       <c r="R5" t="n">
-        <v>0.00156347797790278</v>
+        <v>0.08880399570495276</v>
       </c>
       <c r="S5" t="n">
-        <v>0.06497931169640679</v>
+        <v>0.05178910155836641</v>
       </c>
       <c r="T5" t="n">
-        <v>0.07986869881964785</v>
+        <v>0.08060015540816116</v>
       </c>
       <c r="U5" t="n">
-        <v>0.02296199299938238</v>
+        <v>0.008059910980433037</v>
       </c>
       <c r="V5" t="n">
-        <v>0.03040814105227362</v>
+        <v>0.0346298024881165</v>
       </c>
       <c r="W5" t="n">
-        <v>0.07088132734351479</v>
+        <v>0.06879667097871169</v>
       </c>
       <c r="X5" t="n">
-        <v>0.03099735137079696</v>
+        <v>0.02454244448032668</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.05987538444563946</v>
+        <v>0.005195113023886115</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.05094073681810486</v>
+        <v>0.08202069472295333</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.0009076460397627644</v>
+        <v>0.04248275258596044</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.01073789910339152</v>
+        <v>0.0009334348660981295</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.05271925219680642</v>
+        <v>0.08234984530963252</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.01047279647549196</v>
+        <v>0.03580284420349682</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.04547206362607808</v>
+        <v>0.02666777087578732</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.03824818452460105</v>
+        <v>0.0113078267505993</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.0768095867451859</v>
+        <v>0.02321630619790876</v>
       </c>
       <c r="AH5" t="n">
-        <v>-0.366847224405918</v>
+        <v>-0.3385672669325922</v>
       </c>
     </row>
     <row r="6">
@@ -1060,94 +1060,94 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.2318385334999394</v>
+        <v>0.2372861041288123</v>
       </c>
       <c r="F6" t="n">
-        <v>0.04846558962186322</v>
+        <v>0.05208053040782151</v>
       </c>
       <c r="G6" t="n">
-        <v>0.07652220501898845</v>
+        <v>0.04742448697719248</v>
       </c>
       <c r="H6" t="n">
-        <v>0.000148928940020778</v>
+        <v>0.009018271588931061</v>
       </c>
       <c r="I6" t="n">
-        <v>0.01767360537425791</v>
+        <v>0.06251283380400886</v>
       </c>
       <c r="J6" t="n">
-        <v>0.01810604254283184</v>
+        <v>0.01915630114003262</v>
       </c>
       <c r="K6" t="n">
-        <v>0.006358256655356105</v>
+        <v>0.04560748229416796</v>
       </c>
       <c r="L6" t="n">
-        <v>0.007969642173230771</v>
+        <v>0.02604477747234347</v>
       </c>
       <c r="M6" t="n">
-        <v>0.04699927350901605</v>
+        <v>0.01447740359265164</v>
       </c>
       <c r="N6" t="n">
-        <v>0.05934804757271839</v>
+        <v>0.05387569987909473</v>
       </c>
       <c r="O6" t="n">
-        <v>0.003579416375509538</v>
+        <v>0.0006758557136093299</v>
       </c>
       <c r="P6" t="n">
-        <v>0.04621545135976826</v>
+        <v>0.05946159380797102</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.02099466640401585</v>
+        <v>0.02217835327707633</v>
       </c>
       <c r="R6" t="n">
-        <v>0.08758799626669238</v>
+        <v>0.06135762545002947</v>
       </c>
       <c r="S6" t="n">
-        <v>0.0468685794322341</v>
+        <v>0.05929818340654414</v>
       </c>
       <c r="T6" t="n">
-        <v>0.09550101744047955</v>
+        <v>0.07243989877585229</v>
       </c>
       <c r="U6" t="n">
-        <v>0.008934530814269504</v>
+        <v>0.02853668346804829</v>
       </c>
       <c r="V6" t="n">
-        <v>0.06005791287701317</v>
+        <v>0.04314144588958872</v>
       </c>
       <c r="W6" t="n">
-        <v>0.009660525980330705</v>
+        <v>0.02062764709943163</v>
       </c>
       <c r="X6" t="n">
-        <v>0.04061940818807256</v>
+        <v>0.03607098000799548</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.09212965083647472</v>
+        <v>0.02035225359715803</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.004307659566869676</v>
+        <v>0.02114288448222135</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.03909298321942183</v>
+        <v>0.02596573727707042</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.05116829507221724</v>
+        <v>0.06007688648923968</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.03253731635694829</v>
+        <v>0.001469309709276183</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.01642659027956572</v>
+        <v>0.01174563998792435</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.03195316232011922</v>
+        <v>0.05283099363352972</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.009205123130048197</v>
+        <v>0.003911337430772301</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.02156812267166577</v>
+        <v>0.06851890334041696</v>
       </c>
       <c r="AH6" t="n">
-        <v>0.1962884324958316</v>
+        <v>0.224871422970643</v>
       </c>
     </row>
     <row r="7">
@@ -1170,94 +1170,94 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.2872098010817545</v>
+        <v>0.3395866920713598</v>
       </c>
       <c r="F7" t="n">
-        <v>0.04208027472023817</v>
+        <v>0.08231357023983775</v>
       </c>
       <c r="G7" t="n">
-        <v>0.06543415362505745</v>
+        <v>0.05868220774711328</v>
       </c>
       <c r="H7" t="n">
-        <v>0.07191764684567317</v>
+        <v>0.09226417201249913</v>
       </c>
       <c r="I7" t="n">
-        <v>0.02389930709040667</v>
+        <v>0.008346058117626905</v>
       </c>
       <c r="J7" t="n">
-        <v>0.05556540029319854</v>
+        <v>0.06179959555833327</v>
       </c>
       <c r="K7" t="n">
-        <v>0.07548169184097321</v>
+        <v>0.03176865253876394</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0006676447665912577</v>
+        <v>0.01005030216211156</v>
       </c>
       <c r="M7" t="n">
-        <v>0.01091388609578377</v>
+        <v>0.06764229435462964</v>
       </c>
       <c r="N7" t="n">
-        <v>0.04473681716553507</v>
+        <v>0.002933069498207214</v>
       </c>
       <c r="O7" t="n">
-        <v>0.07325390218673948</v>
+        <v>0.02990588874508942</v>
       </c>
       <c r="P7" t="n">
-        <v>0.04485181913656401</v>
+        <v>0.01966302453577917</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.01327570788305014</v>
+        <v>0.05116399806060885</v>
       </c>
       <c r="R7" t="n">
-        <v>0.06867972398501325</v>
+        <v>0.01499450950088196</v>
       </c>
       <c r="S7" t="n">
-        <v>0.03913892398009443</v>
+        <v>0.01530270623211266</v>
       </c>
       <c r="T7" t="n">
-        <v>0.008837582346837545</v>
+        <v>0.04029355953923625</v>
       </c>
       <c r="U7" t="n">
-        <v>0.01605707739475582</v>
+        <v>0.0002926950166287727</v>
       </c>
       <c r="V7" t="n">
-        <v>0.06684134200301875</v>
+        <v>0.01631171997064733</v>
       </c>
       <c r="W7" t="n">
-        <v>0.04566900523493968</v>
+        <v>0.007298063333757702</v>
       </c>
       <c r="X7" t="n">
-        <v>0.0631154738586171</v>
+        <v>0.01572824713168852</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.00619071186638849</v>
+        <v>0.00690321895466134</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.005893056179657646</v>
+        <v>0.03545501951647591</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.01786262321914947</v>
+        <v>0.03329304768297821</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.01551240485131062</v>
+        <v>0.02016714628481808</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.001896664134578843</v>
+        <v>0.01174956199756125</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.00191021533004287</v>
+        <v>0.09705177750376497</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.0310154167586137</v>
+        <v>0.04407155710658934</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.02217382537499189</v>
+        <v>0.04685811152959255</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.06712770183217916</v>
+        <v>0.07769622512800486</v>
       </c>
       <c r="AH7" t="n">
-        <v>0.3199517315511477</v>
+        <v>0.272224770871786</v>
       </c>
     </row>
     <row r="8">
@@ -1280,94 +1280,94 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.2547429179455095</v>
+        <v>0.2599203547315667</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0275657123207326</v>
+        <v>0.01841742931739711</v>
       </c>
       <c r="G8" t="n">
-        <v>0.08360276867477812</v>
+        <v>0.06234716594044733</v>
       </c>
       <c r="H8" t="n">
-        <v>0.008869721837022122</v>
+        <v>0.003153534176441521</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0003477111391272259</v>
+        <v>0.01946047539591085</v>
       </c>
       <c r="J8" t="n">
-        <v>0.04652263261012773</v>
+        <v>0.01830574685942774</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0004650642983461681</v>
+        <v>0.04063654948782943</v>
       </c>
       <c r="L8" t="n">
-        <v>0.05123680902632297</v>
+        <v>0.06720551868871154</v>
       </c>
       <c r="M8" t="n">
-        <v>0.05674122951028637</v>
+        <v>0.04123020288938048</v>
       </c>
       <c r="N8" t="n">
-        <v>0.00230686010967361</v>
+        <v>0.0009348077160742585</v>
       </c>
       <c r="O8" t="n">
-        <v>0.01177423081103264</v>
+        <v>0.05325946727353892</v>
       </c>
       <c r="P8" t="n">
-        <v>0.0004423680444335151</v>
+        <v>0.03076812769391411</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.003157941259053492</v>
+        <v>0.01244796329022447</v>
       </c>
       <c r="R8" t="n">
-        <v>0.03792592960633644</v>
+        <v>0.08308640389407752</v>
       </c>
       <c r="S8" t="n">
-        <v>0.04009548290710459</v>
+        <v>0.0132030263152265</v>
       </c>
       <c r="T8" t="n">
-        <v>0.05065378405187613</v>
+        <v>0.08354309111169522</v>
       </c>
       <c r="U8" t="n">
-        <v>0.008662590179406203</v>
+        <v>0.0115404483344904</v>
       </c>
       <c r="V8" t="n">
-        <v>0.07699112508733257</v>
+        <v>0.03398331839780578</v>
       </c>
       <c r="W8" t="n">
-        <v>0.05580706892144183</v>
+        <v>0.08376672774424983</v>
       </c>
       <c r="X8" t="n">
-        <v>0.04624557684389974</v>
+        <v>0.03789216060632179</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.09133136529107008</v>
+        <v>0.004975469351439814</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.04742952344658327</v>
+        <v>0.003863098791328797</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.05824041545091783</v>
+        <v>0.009457740366462738</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.07658854476067939</v>
+        <v>0.08285978329304258</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.02100933880673097</v>
+        <v>0.03189328027513559</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.01032316432990233</v>
+        <v>0.009733201235394097</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.0003596658110020389</v>
+        <v>0.05293780435696583</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.03176067004510468</v>
+        <v>0.0153282071225891</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.05354270481967544</v>
+        <v>0.07376925007447672</v>
       </c>
       <c r="AH8" t="n">
-        <v>0.07150361724903651</v>
+        <v>0.08645905805581128</v>
       </c>
     </row>
     <row r="9">
@@ -1390,94 +1390,94 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.3463015471737907</v>
+        <v>0.3237345677780517</v>
       </c>
       <c r="F9" t="n">
-        <v>0.07548396951712055</v>
+        <v>0.08673195423765109</v>
       </c>
       <c r="G9" t="n">
-        <v>0.01364759204260588</v>
+        <v>0.004264978953766114</v>
       </c>
       <c r="H9" t="n">
-        <v>0.05197595349146186</v>
+        <v>0.01839952290572731</v>
       </c>
       <c r="I9" t="n">
-        <v>0.05569899396010745</v>
+        <v>0.04200639961624412</v>
       </c>
       <c r="J9" t="n">
-        <v>0.0130170695808408</v>
+        <v>6.090835070815417e-05</v>
       </c>
       <c r="K9" t="n">
-        <v>0.06581197092849135</v>
+        <v>0.08333657497035407</v>
       </c>
       <c r="L9" t="n">
-        <v>0.07277242389533511</v>
+        <v>0.0209795009355868</v>
       </c>
       <c r="M9" t="n">
-        <v>0.03791840625528635</v>
+        <v>0.009060934760714285</v>
       </c>
       <c r="N9" t="n">
-        <v>0.01253012440864389</v>
+        <v>0.06200731295744733</v>
       </c>
       <c r="O9" t="n">
-        <v>0.07033002638075099</v>
+        <v>0.0627707620903688</v>
       </c>
       <c r="P9" t="n">
-        <v>0.009882645907711176</v>
+        <v>0.003055246509298999</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.0101794705313822</v>
+        <v>0.002918391293769217</v>
       </c>
       <c r="R9" t="n">
-        <v>0.0710442119350993</v>
+        <v>0.06530217428763757</v>
       </c>
       <c r="S9" t="n">
-        <v>0.0540226078800442</v>
+        <v>0.002429996552540438</v>
       </c>
       <c r="T9" t="n">
-        <v>0.04044343556430124</v>
+        <v>0.001152570407437571</v>
       </c>
       <c r="U9" t="n">
-        <v>0.01606097143780185</v>
+        <v>0.04512233325455255</v>
       </c>
       <c r="V9" t="n">
-        <v>0.06557916196059031</v>
+        <v>0.06087854502758596</v>
       </c>
       <c r="W9" t="n">
-        <v>0.02467895272876277</v>
+        <v>0.01048812400885758</v>
       </c>
       <c r="X9" t="n">
-        <v>0.05401270645268916</v>
+        <v>0.05856870404238711</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.01694417627920856</v>
+        <v>0.04328346985137033</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.05356154961954081</v>
+        <v>0.08471049997501785</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.06125158288833769</v>
+        <v>0.01029046274403994</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.007000318098389554</v>
+        <v>0.07116185211190805</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.01577596695010023</v>
+        <v>0.08756759864633915</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.002447157559152265</v>
+        <v>0.01158385182526325</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.01260588829650387</v>
+        <v>0.01664962862134909</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.01241286384382471</v>
+        <v>0.02816055090475941</v>
       </c>
       <c r="AG9" t="n">
-        <v>0.002909801605915891</v>
+        <v>0.00705715015731784</v>
       </c>
       <c r="AH9" t="n">
-        <v>0.117473379558247</v>
+        <v>0.1269090409631717</v>
       </c>
     </row>
     <row r="10">
@@ -1500,94 +1500,94 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.2344865625168175</v>
+        <v>0.3221171251599516</v>
       </c>
       <c r="F10" t="n">
-        <v>0.04307227598424041</v>
+        <v>0.02017471606031248</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03211288159532704</v>
+        <v>0.04412686103987321</v>
       </c>
       <c r="H10" t="n">
-        <v>0.06127357005571046</v>
+        <v>0.07454589904940366</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0749512409393867</v>
+        <v>0.04106043049571881</v>
       </c>
       <c r="J10" t="n">
-        <v>0.001001301354546487</v>
+        <v>0.02770815628267723</v>
       </c>
       <c r="K10" t="n">
-        <v>0.02116813847449295</v>
+        <v>0.02061323374793063</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0226210277671519</v>
+        <v>0.05377062360377764</v>
       </c>
       <c r="M10" t="n">
-        <v>0.002385408820536457</v>
+        <v>0.006980862328444968</v>
       </c>
       <c r="N10" t="n">
-        <v>0.008506077205415415</v>
+        <v>0.04664167489999506</v>
       </c>
       <c r="O10" t="n">
-        <v>0.01942823867358719</v>
+        <v>0.06518523933945744</v>
       </c>
       <c r="P10" t="n">
-        <v>0.04342560205637058</v>
+        <v>0.007519720942439087</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.004790749089885324</v>
+        <v>0.02123190933759834</v>
       </c>
       <c r="R10" t="n">
-        <v>0.0506037469152549</v>
+        <v>0.05226474794985015</v>
       </c>
       <c r="S10" t="n">
-        <v>0.06271779827991004</v>
+        <v>0.01963043520571175</v>
       </c>
       <c r="T10" t="n">
-        <v>0.07472603593654144</v>
+        <v>0.07610612928360101</v>
       </c>
       <c r="U10" t="n">
-        <v>0.02428593861393314</v>
+        <v>0.03293694590685974</v>
       </c>
       <c r="V10" t="n">
-        <v>0.02954637202918298</v>
+        <v>0.03683825722728822</v>
       </c>
       <c r="W10" t="n">
-        <v>0.002156074753592424</v>
+        <v>0.009206311472846731</v>
       </c>
       <c r="X10" t="n">
-        <v>0.0322289039645801</v>
+        <v>0.0437558364414306</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.07190962731057186</v>
+        <v>0.04380345388433582</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.03375445697223382</v>
+        <v>0.01244511196251456</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.005320112899580271</v>
+        <v>0.008129639086477673</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.03373184913874937</v>
+        <v>0.0616105709737095</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.07112237523490955</v>
+        <v>0.01851093252891584</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.02499259002255091</v>
+        <v>0.06497385976549608</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.004817675064377944</v>
+        <v>0.007849230594258324</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.07682512314174807</v>
+        <v>0.04334378917944736</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.06652480770563222</v>
+        <v>0.03903542140962828</v>
       </c>
       <c r="AH10" t="n">
-        <v>0.03761191566823788</v>
+        <v>-0.0002268147440498427</v>
       </c>
     </row>
     <row r="11">
@@ -1610,94 +1610,94 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1.074908818971557</v>
+        <v>0.772953312009014</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0311189916552799</v>
+        <v>0.07856783429919224</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0004593245765484095</v>
+        <v>0.06993959429775506</v>
       </c>
       <c r="H11" t="n">
-        <v>0.03247673247266619</v>
+        <v>0.03337661039200198</v>
       </c>
       <c r="I11" t="n">
-        <v>0.07693535596508731</v>
+        <v>0.02328422652123497</v>
       </c>
       <c r="J11" t="n">
-        <v>0.002145757000282257</v>
+        <v>0.02286945083530819</v>
       </c>
       <c r="K11" t="n">
-        <v>0.02230855651238273</v>
+        <v>0.003337233759486299</v>
       </c>
       <c r="L11" t="n">
-        <v>0.05840615370739576</v>
+        <v>0.03567170818450316</v>
       </c>
       <c r="M11" t="n">
-        <v>0.02942578392639079</v>
+        <v>0.01569137497805202</v>
       </c>
       <c r="N11" t="n">
-        <v>0.06595544717936745</v>
+        <v>0.05614670138040858</v>
       </c>
       <c r="O11" t="n">
-        <v>0.004016271646091149</v>
+        <v>0.08463632415462739</v>
       </c>
       <c r="P11" t="n">
-        <v>0.06535851701101802</v>
+        <v>0.08687112110659763</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.01782492266961142</v>
+        <v>0.008080939694204259</v>
       </c>
       <c r="R11" t="n">
-        <v>0.002935920187953795</v>
+        <v>0.0786513265349854</v>
       </c>
       <c r="S11" t="n">
-        <v>0.02696727273243611</v>
+        <v>0.04368851204649169</v>
       </c>
       <c r="T11" t="n">
-        <v>0.01089924050410969</v>
+        <v>0.03163341243318343</v>
       </c>
       <c r="U11" t="n">
-        <v>0.03729918513673364</v>
+        <v>0.003796736117639195</v>
       </c>
       <c r="V11" t="n">
-        <v>0.04022862071796694</v>
+        <v>0.01717220012798703</v>
       </c>
       <c r="W11" t="n">
-        <v>0.01008115122051324</v>
+        <v>0.001755010109964629</v>
       </c>
       <c r="X11" t="n">
-        <v>0.02077889506682998</v>
+        <v>0.05850121714936175</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.053662768135384</v>
+        <v>0.007475838106775155</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.03743630730692627</v>
+        <v>0.03732465498701571</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.01073622387028259</v>
+        <v>0.03101869781789278</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.07150115667663876</v>
+        <v>0.00500732820833523</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.03241391435311019</v>
+        <v>0.0003334198945382149</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.05730333105691306</v>
+        <v>0.04589284251300715</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.11451683417403</v>
+        <v>0.08216088139569772</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.004496600386765272</v>
+        <v>0.009178967657033811</v>
       </c>
       <c r="AG11" t="n">
-        <v>0.06231076415128502</v>
+        <v>0.02793583529671923</v>
       </c>
       <c r="AH11" t="n">
-        <v>0.05338807697863173</v>
+        <v>0.03396086582882882</v>
       </c>
     </row>
     <row r="12">
@@ -1720,94 +1720,94 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.1719193943190996</v>
+        <v>0.1795405446170028</v>
       </c>
       <c r="F12" t="n">
-        <v>0.03183789106411099</v>
+        <v>0.03721466930155962</v>
       </c>
       <c r="G12" t="n">
-        <v>0.06576519980891254</v>
+        <v>0.004016794101348233</v>
       </c>
       <c r="H12" t="n">
-        <v>0.01947004638962205</v>
+        <v>0.003776574055028346</v>
       </c>
       <c r="I12" t="n">
-        <v>0.05354944203640713</v>
+        <v>0.01162082528769268</v>
       </c>
       <c r="J12" t="n">
-        <v>0.0112669032479421</v>
+        <v>0.02726192908680309</v>
       </c>
       <c r="K12" t="n">
-        <v>0.04099048105731336</v>
+        <v>0.05043684260987143</v>
       </c>
       <c r="L12" t="n">
-        <v>0.06776890850937782</v>
+        <v>0.07163542089957682</v>
       </c>
       <c r="M12" t="n">
-        <v>0.01259914474387088</v>
+        <v>0.001812816871884989</v>
       </c>
       <c r="N12" t="n">
-        <v>0.01198016123924518</v>
+        <v>0.07785678000330434</v>
       </c>
       <c r="O12" t="n">
-        <v>0.04118015325437414</v>
+        <v>0.05286358122419153</v>
       </c>
       <c r="P12" t="n">
-        <v>0.003044614857472261</v>
+        <v>0.06286588166278488</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.0582850256850961</v>
+        <v>0.02986432931055823</v>
       </c>
       <c r="R12" t="n">
-        <v>0.001397680071568229</v>
+        <v>0.002267969479571361</v>
       </c>
       <c r="S12" t="n">
-        <v>0.04803104536593888</v>
+        <v>0.04285783374224157</v>
       </c>
       <c r="T12" t="n">
-        <v>0.04808462901523064</v>
+        <v>0.02050002379690104</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01303560679930751</v>
+        <v>0.03778702662958901</v>
       </c>
       <c r="V12" t="n">
-        <v>0.06700412290525351</v>
+        <v>0.03691058298382898</v>
       </c>
       <c r="W12" t="n">
-        <v>0.005222819443550919</v>
+        <v>0.003325879486947188</v>
       </c>
       <c r="X12" t="n">
-        <v>0.01400352548826538</v>
+        <v>0.05236665131436351</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.02876853126959691</v>
+        <v>0.05651482172881482</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.0427731667947165</v>
+        <v>0.08402201062785929</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.0450342520333803</v>
+        <v>0.05156157755789739</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.06462797801208903</v>
+        <v>0.003977859475881111</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.02980929543871801</v>
+        <v>0.01738660074264834</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.05828335170014886</v>
+        <v>0.02918006337266665</v>
       </c>
       <c r="AE12" t="n">
-        <v>0.06326658416016476</v>
+        <v>0.06813732060025156</v>
       </c>
       <c r="AF12" t="n">
-        <v>0.0486184155514242</v>
+        <v>0.06141781110140199</v>
       </c>
       <c r="AG12" t="n">
-        <v>0.004301024056901794</v>
+        <v>0.0005595229445317624</v>
       </c>
       <c r="AH12" t="n">
-        <v>0.1062828415514818</v>
+        <v>0.1371822776914079</v>
       </c>
     </row>
     <row r="13">
@@ -1830,94 +1830,94 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.9153004117795777</v>
+        <v>0.9323946853666377</v>
       </c>
       <c r="F13" t="n">
-        <v>0.05481021144705463</v>
+        <v>0.03428883372516658</v>
       </c>
       <c r="G13" t="n">
-        <v>0.05593389654580008</v>
+        <v>0.08435900413736901</v>
       </c>
       <c r="H13" t="n">
-        <v>0.04666606849928432</v>
+        <v>0.04608999097467218</v>
       </c>
       <c r="I13" t="n">
-        <v>0.05966693076064099</v>
+        <v>0.003517243512251013</v>
       </c>
       <c r="J13" t="n">
-        <v>0.04850953497766657</v>
+        <v>0.07900037291058042</v>
       </c>
       <c r="K13" t="n">
-        <v>0.05898474825794022</v>
+        <v>0.002734962327556961</v>
       </c>
       <c r="L13" t="n">
-        <v>0.01557385845153979</v>
+        <v>0.04238072760129136</v>
       </c>
       <c r="M13" t="n">
-        <v>0.03544961797169304</v>
+        <v>0.06029374463423532</v>
       </c>
       <c r="N13" t="n">
-        <v>0.02259803020292465</v>
+        <v>0.04394690072940623</v>
       </c>
       <c r="O13" t="n">
-        <v>0.01307331823792319</v>
+        <v>0.0003622018158990621</v>
       </c>
       <c r="P13" t="n">
-        <v>0.02559224921838115</v>
+        <v>0.07706516778602583</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.01399503070362329</v>
+        <v>0.002582907002135023</v>
       </c>
       <c r="R13" t="n">
-        <v>0.04044735917580862</v>
+        <v>0.03234228692296741</v>
       </c>
       <c r="S13" t="n">
-        <v>0.0319439241386557</v>
+        <v>0.05126709125829928</v>
       </c>
       <c r="T13" t="n">
-        <v>0.06218367904362068</v>
+        <v>0.06404118349234485</v>
       </c>
       <c r="U13" t="n">
-        <v>0.02029048064448846</v>
+        <v>0.05462043450731502</v>
       </c>
       <c r="V13" t="n">
-        <v>0.06014817180716161</v>
+        <v>0.007456524643956288</v>
       </c>
       <c r="W13" t="n">
-        <v>0.08271489727957103</v>
+        <v>0.0912308548733322</v>
       </c>
       <c r="X13" t="n">
-        <v>0.03159020806961069</v>
+        <v>0.02664964346798572</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.02576752998364234</v>
+        <v>0.009468021978703696</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.02845767908383313</v>
+        <v>0.01457720283632714</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.01530512134120554</v>
+        <v>0.04150445134940144</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.02452748393300423</v>
+        <v>0.06491849935027465</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.01324295940244279</v>
+        <v>0.03003144428909062</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.07855818789858711</v>
+        <v>0.02618074185088586</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.01528411733066579</v>
+        <v>0.002553617557265199</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.009998131046656514</v>
+        <v>0.0007751521884142602</v>
       </c>
       <c r="AG13" t="n">
-        <v>0.008686574546573962</v>
+        <v>0.005760792276847391</v>
       </c>
       <c r="AH13" t="n">
-        <v>0.101982874365828</v>
+        <v>0.09569972464618243</v>
       </c>
     </row>
     <row r="14">
@@ -1940,94 +1940,94 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.150284569785563</v>
+        <v>0.1503308028797681</v>
       </c>
       <c r="F14" t="n">
-        <v>0.04530574440426644</v>
+        <v>0.01034258030252854</v>
       </c>
       <c r="G14" t="n">
-        <v>0.007983889529262267</v>
+        <v>0.0008205179817248815</v>
       </c>
       <c r="H14" t="n">
-        <v>0.05849998737995108</v>
+        <v>0.02463981134376913</v>
       </c>
       <c r="I14" t="n">
-        <v>0.05616805424872977</v>
+        <v>0.05256054525796133</v>
       </c>
       <c r="J14" t="n">
-        <v>0.05487147333522403</v>
+        <v>0.004800070934434634</v>
       </c>
       <c r="K14" t="n">
-        <v>0.03379209749980206</v>
+        <v>0.06203739063452035</v>
       </c>
       <c r="L14" t="n">
-        <v>0.01113918461372218</v>
+        <v>0.04353041344497642</v>
       </c>
       <c r="M14" t="n">
-        <v>0.07636320942228977</v>
+        <v>0.03635174902866627</v>
       </c>
       <c r="N14" t="n">
-        <v>0.01014850209207484</v>
+        <v>0.03401102613563739</v>
       </c>
       <c r="O14" t="n">
-        <v>0.01575941093855002</v>
+        <v>0.02375223673973416</v>
       </c>
       <c r="P14" t="n">
-        <v>0.0003048434645015595</v>
+        <v>0.0008124742629014195</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.005177480296627528</v>
+        <v>0.004232651166856486</v>
       </c>
       <c r="R14" t="n">
-        <v>0.06863163546527447</v>
+        <v>0.07850712882666164</v>
       </c>
       <c r="S14" t="n">
-        <v>0.01357173506887087</v>
+        <v>0.0801409417456715</v>
       </c>
       <c r="T14" t="n">
-        <v>0.07729371561344532</v>
+        <v>0.06277613037222539</v>
       </c>
       <c r="U14" t="n">
-        <v>0.01410824864575094</v>
+        <v>0.0429298158764508</v>
       </c>
       <c r="V14" t="n">
-        <v>0.00239362948977305</v>
+        <v>0.01674347320798714</v>
       </c>
       <c r="W14" t="n">
-        <v>0.04646348346177835</v>
+        <v>0.07845657513265164</v>
       </c>
       <c r="X14" t="n">
-        <v>0.003870024357954384</v>
+        <v>0.03639115345515209</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.04260395188154633</v>
+        <v>0.04250320614700491</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.02713159325679124</v>
+        <v>0.002126919716354054</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.0376038555933261</v>
+        <v>0.0129361161014979</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.0442181310985393</v>
+        <v>0.07959005345181462</v>
       </c>
       <c r="AC14" t="n">
-        <v>0.05278549974871356</v>
+        <v>0.02417134811766713</v>
       </c>
       <c r="AD14" t="n">
-        <v>0.04518447515114691</v>
+        <v>0.02167144726103981</v>
       </c>
       <c r="AE14" t="n">
-        <v>0.01412867112161706</v>
+        <v>0.02096566239976823</v>
       </c>
       <c r="AF14" t="n">
-        <v>0.03966502249348394</v>
+        <v>0.04601397599323082</v>
       </c>
       <c r="AG14" t="n">
-        <v>0.09483245032698664</v>
+        <v>0.05618458496111136</v>
       </c>
       <c r="AH14" t="n">
-        <v>0.2120408973627949</v>
+        <v>0.2167102398658949</v>
       </c>
     </row>
     <row r="15">
@@ -2050,94 +2050,94 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.9582126710402453</v>
+        <v>0.8639130909488822</v>
       </c>
       <c r="F15" t="n">
-        <v>0.001786592454873674</v>
+        <v>0.024506126103125</v>
       </c>
       <c r="G15" t="n">
-        <v>0.02154663376143245</v>
+        <v>0.01305012600616037</v>
       </c>
       <c r="H15" t="n">
-        <v>0.02446111045419304</v>
+        <v>0.04694353831176928</v>
       </c>
       <c r="I15" t="n">
-        <v>0.07696800880833243</v>
+        <v>0.06589923021527061</v>
       </c>
       <c r="J15" t="n">
-        <v>0.01494046836687004</v>
+        <v>0.05367030894789156</v>
       </c>
       <c r="K15" t="n">
-        <v>0.05742600076883574</v>
+        <v>0.0270391880274086</v>
       </c>
       <c r="L15" t="n">
-        <v>0.07350420147624982</v>
+        <v>0.001560798700518339</v>
       </c>
       <c r="M15" t="n">
-        <v>0.02493226320992359</v>
+        <v>0.005077557730969038</v>
       </c>
       <c r="N15" t="n">
-        <v>0.08483869514863003</v>
+        <v>0.07549367223752008</v>
       </c>
       <c r="O15" t="n">
-        <v>0.007866382622895537</v>
+        <v>0.01037440561719895</v>
       </c>
       <c r="P15" t="n">
-        <v>0.08618982781140051</v>
+        <v>0.07758279647832701</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.0199393620858219</v>
+        <v>0.01192296518033501</v>
       </c>
       <c r="R15" t="n">
-        <v>0.004378481741791642</v>
+        <v>0.0622498413453844</v>
       </c>
       <c r="S15" t="n">
-        <v>0.02349790100687469</v>
+        <v>0.02461449585153617</v>
       </c>
       <c r="T15" t="n">
-        <v>0.04274417064116567</v>
+        <v>0.02580401087556204</v>
       </c>
       <c r="U15" t="n">
-        <v>0.03796898861238185</v>
+        <v>0.001723105590014972</v>
       </c>
       <c r="V15" t="n">
-        <v>0.02506769016079945</v>
+        <v>0.0005127369628654496</v>
       </c>
       <c r="W15" t="n">
-        <v>0.04429501063421841</v>
+        <v>0.02119369151491492</v>
       </c>
       <c r="X15" t="n">
-        <v>0.0004501983047199952</v>
+        <v>0.03027859589697692</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.0006813036026073481</v>
+        <v>0.0006470550857215128</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.04687317769332396</v>
+        <v>0.08096848846501438</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.01918417875756954</v>
+        <v>0.06228933144457899</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.0166772661039446</v>
+        <v>0.06300957173653031</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.02025336915010274</v>
+        <v>0.008829731534414305</v>
       </c>
       <c r="AD15" t="n">
-        <v>0.04276215556359683</v>
+        <v>0.05527899733942888</v>
       </c>
       <c r="AE15" t="n">
-        <v>0.08139686396360965</v>
+        <v>0.0534919870216581</v>
       </c>
       <c r="AF15" t="n">
-        <v>0.03803316614741861</v>
+        <v>0.06206226457838434</v>
       </c>
       <c r="AG15" t="n">
-        <v>0.06133653094641622</v>
+        <v>0.03392538120052055</v>
       </c>
       <c r="AH15" t="n">
-        <v>0.2567507099372304</v>
+        <v>0.2640720401677575</v>
       </c>
     </row>
     <row r="16">
@@ -2160,94 +2160,94 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.2667481410072622</v>
+        <v>0.2104626210831545</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08692199243600393</v>
+        <v>0.04574044041154481</v>
       </c>
       <c r="G16" t="n">
-        <v>0.07687793744090821</v>
+        <v>0.05942799468058313</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0002444899761214217</v>
+        <v>0.002991276423864147</v>
       </c>
       <c r="I16" t="n">
-        <v>0.02823599543350619</v>
+        <v>0.02719362252542957</v>
       </c>
       <c r="J16" t="n">
-        <v>0.04797538409477274</v>
+        <v>0.07112420504150782</v>
       </c>
       <c r="K16" t="n">
-        <v>0.04035487377056836</v>
+        <v>0.01418692237772555</v>
       </c>
       <c r="L16" t="n">
-        <v>0.02889747703416068</v>
+        <v>0.05232788807580022</v>
       </c>
       <c r="M16" t="n">
-        <v>0.03795618276121509</v>
+        <v>0.002441124524390212</v>
       </c>
       <c r="N16" t="n">
-        <v>0.01162476231476258</v>
+        <v>0.00479220348517137</v>
       </c>
       <c r="O16" t="n">
-        <v>0.007090315986015052</v>
+        <v>0.04879751115014568</v>
       </c>
       <c r="P16" t="n">
-        <v>0.02785165542131528</v>
+        <v>0.06174013331526849</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.07649223760156505</v>
+        <v>0.0486471469832303</v>
       </c>
       <c r="R16" t="n">
-        <v>0.007050602344275271</v>
+        <v>0.02528831088381979</v>
       </c>
       <c r="S16" t="n">
-        <v>0.0216846357237761</v>
+        <v>0.05591661361508239</v>
       </c>
       <c r="T16" t="n">
-        <v>0.03136853612286473</v>
+        <v>0.03463944076984199</v>
       </c>
       <c r="U16" t="n">
-        <v>0.00547522190699515</v>
+        <v>0.05951955162390946</v>
       </c>
       <c r="V16" t="n">
-        <v>0.03262632242351573</v>
+        <v>0.02515973707624767</v>
       </c>
       <c r="W16" t="n">
-        <v>0.06603273426900945</v>
+        <v>0.04882083533093034</v>
       </c>
       <c r="X16" t="n">
-        <v>0.004369212561109991</v>
+        <v>0.005419697461553253</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.05197525904159456</v>
+        <v>0.0173329916327368</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.01430173218889778</v>
+        <v>0.002326799995902195</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.08570931398080568</v>
+        <v>0.05474059527116738</v>
       </c>
       <c r="AB16" t="n">
-        <v>0.04637059585052825</v>
+        <v>0.02156890332334792</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.04806579065303427</v>
+        <v>0.05772180568633307</v>
       </c>
       <c r="AD16" t="n">
-        <v>0.0239574937638148</v>
+        <v>0.0365203583292255</v>
       </c>
       <c r="AE16" t="n">
-        <v>0.01897570475049189</v>
+        <v>0.03794280512974643</v>
       </c>
       <c r="AF16" t="n">
-        <v>0.003744404585843704</v>
+        <v>0.01062115840600218</v>
       </c>
       <c r="AG16" t="n">
-        <v>0.067769135562528</v>
+        <v>0.06704992646949239</v>
       </c>
       <c r="AH16" t="n">
-        <v>0.1431853386201261</v>
+        <v>0.1429041827411249</v>
       </c>
     </row>
     <row r="17">
@@ -2270,94 +2270,94 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.9518731835507409</v>
+        <v>0.7674731225915274</v>
       </c>
       <c r="F17" t="n">
-        <v>0.01934729607674405</v>
+        <v>0.01066466137806093</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0002345233261971166</v>
+        <v>0.03448653363038619</v>
       </c>
       <c r="H17" t="n">
-        <v>0.07857836892636878</v>
+        <v>0.06251890647858017</v>
       </c>
       <c r="I17" t="n">
-        <v>0.01200385628692866</v>
+        <v>0.05132726581481118</v>
       </c>
       <c r="J17" t="n">
-        <v>0.07346382892598129</v>
+        <v>0.05973081123527477</v>
       </c>
       <c r="K17" t="n">
-        <v>0.04735691860659993</v>
+        <v>0.04200715688153595</v>
       </c>
       <c r="L17" t="n">
-        <v>0.005675959366847366</v>
+        <v>0.006752203196723579</v>
       </c>
       <c r="M17" t="n">
-        <v>0.01139475896973543</v>
+        <v>0.0513687221612136</v>
       </c>
       <c r="N17" t="n">
-        <v>0.00597317468850233</v>
+        <v>0.0009747000335697239</v>
       </c>
       <c r="O17" t="n">
-        <v>0.03297906369681686</v>
+        <v>0.01969464306722634</v>
       </c>
       <c r="P17" t="n">
-        <v>0.03193240778226569</v>
+        <v>0.05999944683689735</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.04691188013232767</v>
+        <v>0.05093079868816148</v>
       </c>
       <c r="R17" t="n">
-        <v>0.0129061136687715</v>
+        <v>0.05131313856434711</v>
       </c>
       <c r="S17" t="n">
-        <v>0.02496532062175475</v>
+        <v>0.01988305010063515</v>
       </c>
       <c r="T17" t="n">
-        <v>0.06937283230925576</v>
+        <v>0.04928450343655316</v>
       </c>
       <c r="U17" t="n">
-        <v>0.05020036863050275</v>
+        <v>0.06108032455079701</v>
       </c>
       <c r="V17" t="n">
-        <v>0.05732339451260434</v>
+        <v>0.02036362113090772</v>
       </c>
       <c r="W17" t="n">
-        <v>0.02329315493234669</v>
+        <v>0.02684453354619475</v>
       </c>
       <c r="X17" t="n">
-        <v>0.01279104072518362</v>
+        <v>0.03264863158560845</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.08457405818229584</v>
+        <v>0.03789596474034045</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.0009734634756155167</v>
+        <v>0.006506954233122958</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.0215616443549943</v>
+        <v>0.06071698973135933</v>
       </c>
       <c r="AB17" t="n">
-        <v>0.07619653794750704</v>
+        <v>0.05454575417873564</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.08190232041215043</v>
+        <v>0.03636214041891823</v>
       </c>
       <c r="AD17" t="n">
-        <v>0.005726517061322624</v>
+        <v>0.02710396403574512</v>
       </c>
       <c r="AE17" t="n">
-        <v>0.03728573957828159</v>
+        <v>0.04361800325177027</v>
       </c>
       <c r="AF17" t="n">
-        <v>0.009912179603890686</v>
+        <v>0.003800938611629142</v>
       </c>
       <c r="AG17" t="n">
-        <v>0.06516327719820753</v>
+        <v>0.01757563848089426</v>
       </c>
       <c r="AH17" t="n">
-        <v>0.1028074007812364</v>
+        <v>0.0943169704345611</v>
       </c>
     </row>
     <row r="18">
@@ -2380,94 +2380,94 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.3386240671542843</v>
+        <v>0.3347387368562358</v>
       </c>
       <c r="F18" t="n">
-        <v>0.01368500508899212</v>
+        <v>0.006130896520934562</v>
       </c>
       <c r="G18" t="n">
-        <v>0.06063623173318316</v>
+        <v>0.04699716072653157</v>
       </c>
       <c r="H18" t="n">
-        <v>0.054632919094874</v>
+        <v>0.012284846323038</v>
       </c>
       <c r="I18" t="n">
-        <v>0.06620356375699298</v>
+        <v>0.07568200041239059</v>
       </c>
       <c r="J18" t="n">
-        <v>0.01784870263486452</v>
+        <v>0.0484118812860684</v>
       </c>
       <c r="K18" t="n">
-        <v>0.02822676290473105</v>
+        <v>0.002647858345965506</v>
       </c>
       <c r="L18" t="n">
-        <v>0.04663094292513024</v>
+        <v>0.0802795366283785</v>
       </c>
       <c r="M18" t="n">
-        <v>0.02530493547215689</v>
+        <v>0.06867529428929885</v>
       </c>
       <c r="N18" t="n">
-        <v>0.06713180230524265</v>
+        <v>0.08007005175785477</v>
       </c>
       <c r="O18" t="n">
-        <v>0.03336935139993714</v>
+        <v>0.01309418879132393</v>
       </c>
       <c r="P18" t="n">
-        <v>0.01740976308196492</v>
+        <v>0.02897293515412043</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.003514687560622445</v>
+        <v>0.003678336049623656</v>
       </c>
       <c r="R18" t="n">
-        <v>0.06559870338748804</v>
+        <v>0.02759817701305059</v>
       </c>
       <c r="S18" t="n">
-        <v>0.04212689951495747</v>
+        <v>0.059867348786751</v>
       </c>
       <c r="T18" t="n">
-        <v>0.04414422926018507</v>
+        <v>0.04470724280455415</v>
       </c>
       <c r="U18" t="n">
-        <v>0.04241036555114365</v>
+        <v>0.06039056267253211</v>
       </c>
       <c r="V18" t="n">
-        <v>0.02324301762993778</v>
+        <v>0.01207583129842295</v>
       </c>
       <c r="W18" t="n">
-        <v>0.04771481013854685</v>
+        <v>0.08276319298302522</v>
       </c>
       <c r="X18" t="n">
-        <v>0.0399755041068198</v>
+        <v>0.06264941184818545</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.04859288123360087</v>
+        <v>0.03541513007584805</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.01511499669623431</v>
+        <v>0.002635677191145676</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.005633724106763731</v>
+        <v>0.01890191812603422</v>
       </c>
       <c r="AB18" t="n">
-        <v>0.002529327925156651</v>
+        <v>0.007911864650530974</v>
       </c>
       <c r="AC18" t="n">
-        <v>0.01268081915903908</v>
+        <v>0.0110293424850971</v>
       </c>
       <c r="AD18" t="n">
-        <v>0.05039494984472255</v>
+        <v>0.01063639032721308</v>
       </c>
       <c r="AE18" t="n">
-        <v>0.06652895444010985</v>
+        <v>0.007642180988752406</v>
       </c>
       <c r="AF18" t="n">
-        <v>0.02699187734031576</v>
+        <v>0.05319598185293094</v>
       </c>
       <c r="AG18" t="n">
-        <v>0.0317242717062863</v>
+        <v>0.03565476061039735</v>
       </c>
       <c r="AH18" t="n">
-        <v>-0.006007652242193011</v>
+        <v>-0.002855643521567395</v>
       </c>
     </row>
     <row r="19">
@@ -2490,94 +2490,94 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0.605667451268688</v>
+        <v>0.5984791091516836</v>
       </c>
       <c r="F19" t="n">
-        <v>0.02656220269919616</v>
+        <v>0.0006005132997851088</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0416754619663105</v>
+        <v>0.07707424349324499</v>
       </c>
       <c r="H19" t="n">
-        <v>0.07743883419378565</v>
+        <v>0.02889978937621746</v>
       </c>
       <c r="I19" t="n">
-        <v>0.07111034435081545</v>
+        <v>0.04528322852420805</v>
       </c>
       <c r="J19" t="n">
-        <v>0.002565950181551906</v>
+        <v>0.01625616132472466</v>
       </c>
       <c r="K19" t="n">
-        <v>0.07809401587657271</v>
+        <v>0.03894222999693189</v>
       </c>
       <c r="L19" t="n">
-        <v>0.06097520672671612</v>
+        <v>0.05436651387333077</v>
       </c>
       <c r="M19" t="n">
-        <v>0.07777139090304745</v>
+        <v>0.04990966133042484</v>
       </c>
       <c r="N19" t="n">
-        <v>0.008377159736629851</v>
+        <v>0.04456954712079407</v>
       </c>
       <c r="O19" t="n">
-        <v>0.01890782061632728</v>
+        <v>0.01192120404005504</v>
       </c>
       <c r="P19" t="n">
-        <v>0.05341656370384103</v>
+        <v>0.005731500863042908</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.001535976210631456</v>
+        <v>0.01985915891581725</v>
       </c>
       <c r="R19" t="n">
-        <v>0.05050254481361151</v>
+        <v>0.06561166448810386</v>
       </c>
       <c r="S19" t="n">
-        <v>0.008189825283797031</v>
+        <v>0.002655695977966642</v>
       </c>
       <c r="T19" t="n">
-        <v>0.0315997247840756</v>
+        <v>0.06285373476204993</v>
       </c>
       <c r="U19" t="n">
-        <v>0.03662261597740719</v>
+        <v>0.01983454672245225</v>
       </c>
       <c r="V19" t="n">
-        <v>0.01383731754031608</v>
+        <v>0.06986723587424556</v>
       </c>
       <c r="W19" t="n">
-        <v>0.0384989826121489</v>
+        <v>0.01523069198163583</v>
       </c>
       <c r="X19" t="n">
-        <v>0.04107374455537014</v>
+        <v>0.03690271214884307</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.004694882899375597</v>
+        <v>0.02651279967681248</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.001013795387850026</v>
+        <v>0.004348303127249321</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.02347971505741327</v>
+        <v>0.00888916058713668</v>
       </c>
       <c r="AB19" t="n">
-        <v>0.01065256709417354</v>
+        <v>0.006682106150126921</v>
       </c>
       <c r="AC19" t="n">
-        <v>0.07815738706649233</v>
+        <v>0.08135032964849072</v>
       </c>
       <c r="AD19" t="n">
-        <v>0.02917872006633138</v>
+        <v>0.04503960333882547</v>
       </c>
       <c r="AE19" t="n">
-        <v>0.007966739342303132</v>
+        <v>0.07160469815949459</v>
       </c>
       <c r="AF19" t="n">
-        <v>0.03320156498508466</v>
+        <v>0.07031613126287631</v>
       </c>
       <c r="AG19" t="n">
-        <v>0.07289894536882414</v>
+        <v>0.01888683393511328</v>
       </c>
       <c r="AH19" t="n">
-        <v>-0.007561783915156831</v>
+        <v>0.001865998991759696</v>
       </c>
     </row>
     <row r="20">
@@ -2600,94 +2600,94 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0.1513103491103726</v>
+        <v>0.1546416711675009</v>
       </c>
       <c r="F20" t="n">
-        <v>0.003529727798775266</v>
+        <v>0.03842067064978163</v>
       </c>
       <c r="G20" t="n">
-        <v>0.04904578567423826</v>
+        <v>0.06519293313539584</v>
       </c>
       <c r="H20" t="n">
-        <v>0.06476176875837779</v>
+        <v>0.05255371341405036</v>
       </c>
       <c r="I20" t="n">
-        <v>0.07930528971323686</v>
+        <v>0.03109215317393121</v>
       </c>
       <c r="J20" t="n">
-        <v>0.05823839091252923</v>
+        <v>0.008349922867984248</v>
       </c>
       <c r="K20" t="n">
-        <v>0.005939282331805229</v>
+        <v>0.004743310567110995</v>
       </c>
       <c r="L20" t="n">
-        <v>0.05642287110433359</v>
+        <v>0.05400313785329459</v>
       </c>
       <c r="M20" t="n">
-        <v>0.05249491746839796</v>
+        <v>0.0090592825505145</v>
       </c>
       <c r="N20" t="n">
-        <v>0.06357252442201458</v>
+        <v>0.03299850349992774</v>
       </c>
       <c r="O20" t="n">
-        <v>0.03421782474645028</v>
+        <v>0.004300372463959979</v>
       </c>
       <c r="P20" t="n">
-        <v>0.0019114913929335</v>
+        <v>0.003037257441305696</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.04404942569588993</v>
+        <v>0.05651343480710021</v>
       </c>
       <c r="R20" t="n">
-        <v>0.04575165047627284</v>
+        <v>0.04736427996555877</v>
       </c>
       <c r="S20" t="n">
-        <v>0.03281836824545597</v>
+        <v>0.06102275321638282</v>
       </c>
       <c r="T20" t="n">
-        <v>0.07982283126268809</v>
+        <v>0.03767929057593548</v>
       </c>
       <c r="U20" t="n">
-        <v>0.02102549308530258</v>
+        <v>0.05117934106089889</v>
       </c>
       <c r="V20" t="n">
-        <v>0.04974866328331794</v>
+        <v>0.06978358443321772</v>
       </c>
       <c r="W20" t="n">
-        <v>0.01895913329136698</v>
+        <v>0.00232046073946073</v>
       </c>
       <c r="X20" t="n">
-        <v>0.006879984065142251</v>
+        <v>0.05990194108286163</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.007774282146078022</v>
+        <v>0.008092512610431807</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.008904244137719281</v>
+        <v>0.008474940468805764</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.008680611572081116</v>
+        <v>0.02264596834681881</v>
       </c>
       <c r="AB20" t="n">
-        <v>0.0006908505511688068</v>
+        <v>0.06747951366299509</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.04002554981468658</v>
+        <v>0.05584189699473479</v>
       </c>
       <c r="AD20" t="n">
-        <v>0.03250513107989381</v>
+        <v>0.01715174205979996</v>
       </c>
       <c r="AE20" t="n">
-        <v>0.03754426600603334</v>
+        <v>0.04649314804536283</v>
       </c>
       <c r="AF20" t="n">
-        <v>0.01742271044908009</v>
+        <v>0.03109764483611836</v>
       </c>
       <c r="AG20" t="n">
-        <v>0.07795693051472959</v>
+        <v>0.05320628947625947</v>
       </c>
       <c r="AH20" t="n">
-        <v>0.1262806740805903</v>
+        <v>0.09873453375979419</v>
       </c>
     </row>
     <row r="21">
@@ -2710,94 +2710,94 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>0.169482808851283</v>
+        <v>0.1964227262623104</v>
       </c>
       <c r="F21" t="n">
-        <v>0.03556653345683004</v>
+        <v>0.04084430465925844</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03691137792407421</v>
+        <v>0.04417585913949708</v>
       </c>
       <c r="H21" t="n">
-        <v>0.04974574335784644</v>
+        <v>0.01122332185407516</v>
       </c>
       <c r="I21" t="n">
-        <v>0.08285347078953227</v>
+        <v>0.001761755377874918</v>
       </c>
       <c r="J21" t="n">
-        <v>0.000914225808160643</v>
+        <v>0.03240257961546063</v>
       </c>
       <c r="K21" t="n">
-        <v>0.002158672436866446</v>
+        <v>0.005928871502460076</v>
       </c>
       <c r="L21" t="n">
-        <v>0.05960204055777964</v>
+        <v>0.04463745630302628</v>
       </c>
       <c r="M21" t="n">
-        <v>0.06397318273882295</v>
+        <v>0.08761002694540586</v>
       </c>
       <c r="N21" t="n">
-        <v>0.02472781681566541</v>
+        <v>0.01159261434611986</v>
       </c>
       <c r="O21" t="n">
-        <v>0.04139586252034061</v>
+        <v>0.03853755917950288</v>
       </c>
       <c r="P21" t="n">
-        <v>0.01231405995379741</v>
+        <v>0.003209071698661416</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.05050107208184514</v>
+        <v>0.0739690328575083</v>
       </c>
       <c r="R21" t="n">
-        <v>0.01988529121695407</v>
+        <v>0.0765139445646989</v>
       </c>
       <c r="S21" t="n">
-        <v>0.001379054196896992</v>
+        <v>0.05451592780368082</v>
       </c>
       <c r="T21" t="n">
-        <v>0.05678413748493309</v>
+        <v>0.006027406761311629</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06485531271481507</v>
+        <v>0.00798799511478142</v>
       </c>
       <c r="V21" t="n">
-        <v>0.04227900268119564</v>
+        <v>0.0615830413431675</v>
       </c>
       <c r="W21" t="n">
-        <v>0.005842584702365781</v>
+        <v>0.01406226354304584</v>
       </c>
       <c r="X21" t="n">
-        <v>0.02542530646712824</v>
+        <v>0.05859710655244144</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.07054492521735117</v>
+        <v>0.01161246548232347</v>
       </c>
       <c r="Z21" t="n">
-        <v>0.005209152606678496</v>
+        <v>0.02775415397101258</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.003859630539873365</v>
+        <v>0.01407413199976786</v>
       </c>
       <c r="AB21" t="n">
-        <v>0.09381587833684786</v>
+        <v>0.01104586011459751</v>
       </c>
       <c r="AC21" t="n">
-        <v>0.003814254090150144</v>
+        <v>0.06883663441833664</v>
       </c>
       <c r="AD21" t="n">
-        <v>0.08045628872420614</v>
+        <v>0.09075462400571802</v>
       </c>
       <c r="AE21" t="n">
-        <v>0.02061811056959311</v>
+        <v>0.04892968551699799</v>
       </c>
       <c r="AF21" t="n">
-        <v>0.004504389558272571</v>
+        <v>0.02517420264957917</v>
       </c>
       <c r="AG21" t="n">
-        <v>0.04006262245117692</v>
+        <v>0.0266381026796884</v>
       </c>
       <c r="AH21" t="n">
-        <v>0.1432656408978221</v>
+        <v>0.1450757409329498</v>
       </c>
     </row>
     <row r="22">
@@ -2820,94 +2820,94 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0.189309848061901</v>
+        <v>0.1691243457862273</v>
       </c>
       <c r="F22" t="n">
-        <v>0.03365244092747557</v>
+        <v>0.05284502860771156</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05266637811954671</v>
+        <v>0.06105340888631552</v>
       </c>
       <c r="H22" t="n">
-        <v>0.04032802125766117</v>
+        <v>0.03857464362348982</v>
       </c>
       <c r="I22" t="n">
-        <v>0.01109639545923954</v>
+        <v>0.06200448449503707</v>
       </c>
       <c r="J22" t="n">
-        <v>0.005411624215584494</v>
+        <v>0.0003609239714567164</v>
       </c>
       <c r="K22" t="n">
-        <v>0.03159423669991401</v>
+        <v>0.02643746508897936</v>
       </c>
       <c r="L22" t="n">
-        <v>0.05674151291899263</v>
+        <v>0.03186099508024443</v>
       </c>
       <c r="M22" t="n">
-        <v>0.04306105822622649</v>
+        <v>0.05302290533589379</v>
       </c>
       <c r="N22" t="n">
-        <v>0.06663810010155548</v>
+        <v>0.04137503307426971</v>
       </c>
       <c r="O22" t="n">
-        <v>0.01134426015468671</v>
+        <v>0.04777664445665612</v>
       </c>
       <c r="P22" t="n">
-        <v>0.009754485796499913</v>
+        <v>0.02341790196148753</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.0584878839658188</v>
+        <v>0.01229376200849007</v>
       </c>
       <c r="R22" t="n">
-        <v>0.06744876613749516</v>
+        <v>0.001774287273087349</v>
       </c>
       <c r="S22" t="n">
-        <v>0.05970552554102212</v>
+        <v>0.02550134492087071</v>
       </c>
       <c r="T22" t="n">
-        <v>0.02507766169093271</v>
+        <v>0.05815000105687418</v>
       </c>
       <c r="U22" t="n">
-        <v>0.00868338502565023</v>
+        <v>0.006547664622924234</v>
       </c>
       <c r="V22" t="n">
-        <v>0.04727029459332246</v>
+        <v>0.04179872236964367</v>
       </c>
       <c r="W22" t="n">
-        <v>0.02953055864146968</v>
+        <v>0.06052211818755868</v>
       </c>
       <c r="X22" t="n">
-        <v>0.06566745151530215</v>
+        <v>0.0393314183260392</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.04258453952075728</v>
+        <v>0.03140044549032212</v>
       </c>
       <c r="Z22" t="n">
-        <v>0.004547711488327082</v>
+        <v>0.003588521767243387</v>
       </c>
       <c r="AA22" t="n">
-        <v>0.06171411635521115</v>
+        <v>0.04580462820302362</v>
       </c>
       <c r="AB22" t="n">
-        <v>0.03758546083569034</v>
+        <v>0.02835341757490358</v>
       </c>
       <c r="AC22" t="n">
-        <v>0.0008975649278681787</v>
+        <v>0.06233107671476817</v>
       </c>
       <c r="AD22" t="n">
-        <v>0.001812550665073961</v>
+        <v>0.002852940120280845</v>
       </c>
       <c r="AE22" t="n">
-        <v>0.05910615791110683</v>
+        <v>0.05378038712509932</v>
       </c>
       <c r="AF22" t="n">
-        <v>0.05200077379411777</v>
+        <v>0.05370475519225925</v>
       </c>
       <c r="AG22" t="n">
-        <v>0.01559108351345138</v>
+        <v>0.03353507446506997</v>
       </c>
       <c r="AH22" t="n">
-        <v>0.1482773313381557</v>
+        <v>0.189675963253995</v>
       </c>
     </row>
     <row r="23">
@@ -2930,94 +2930,94 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>1.644893669562566</v>
+        <v>1.24725278923456</v>
       </c>
       <c r="F23" t="n">
-        <v>0.02638905140080721</v>
+        <v>0.06563801221446267</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04322669329195843</v>
+        <v>0.00509830189040993</v>
       </c>
       <c r="H23" t="n">
-        <v>0.001981683639603755</v>
+        <v>0.07928990225784489</v>
       </c>
       <c r="I23" t="n">
-        <v>0.09471513901025105</v>
+        <v>0.02100752251253146</v>
       </c>
       <c r="J23" t="n">
-        <v>0.007245201531756115</v>
+        <v>0.006206572072404364</v>
       </c>
       <c r="K23" t="n">
-        <v>0.04571345657831109</v>
+        <v>0.06446643706466534</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0337330482002187</v>
+        <v>0.06028452860214748</v>
       </c>
       <c r="M23" t="n">
-        <v>0.001179124868533301</v>
+        <v>0.05698145143072452</v>
       </c>
       <c r="N23" t="n">
-        <v>0.07180434761797179</v>
+        <v>0.02408249862770056</v>
       </c>
       <c r="O23" t="n">
-        <v>0.00514897002240141</v>
+        <v>0.01211479537857768</v>
       </c>
       <c r="P23" t="n">
-        <v>0.02693691704807981</v>
+        <v>0.03374680239668137</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.07945389122091998</v>
+        <v>0.04742642017232443</v>
       </c>
       <c r="R23" t="n">
-        <v>0.04756547702581522</v>
+        <v>0.05656574764788155</v>
       </c>
       <c r="S23" t="n">
-        <v>0.00812488914242644</v>
+        <v>0.03012669529277231</v>
       </c>
       <c r="T23" t="n">
-        <v>0.05631138296968732</v>
+        <v>0.0007940121706434152</v>
       </c>
       <c r="U23" t="n">
-        <v>0.004531506036242057</v>
+        <v>0.001938493290939358</v>
       </c>
       <c r="V23" t="n">
-        <v>0.03022775949239341</v>
+        <v>0.03159246099172534</v>
       </c>
       <c r="W23" t="n">
-        <v>0.009932103858509907</v>
+        <v>0.006914911957813975</v>
       </c>
       <c r="X23" t="n">
-        <v>0.006336169456227024</v>
+        <v>0.03400619906078972</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.07708806210025891</v>
+        <v>0.0451248037527196</v>
       </c>
       <c r="Z23" t="n">
-        <v>0.03568896379675966</v>
+        <v>0.01491241423367344</v>
       </c>
       <c r="AA23" t="n">
-        <v>0.03879871268913918</v>
+        <v>0.07785114492458035</v>
       </c>
       <c r="AB23" t="n">
-        <v>0.02691743988318761</v>
+        <v>0.04431039388276441</v>
       </c>
       <c r="AC23" t="n">
-        <v>0.05171665390499006</v>
+        <v>0.005921440105238014</v>
       </c>
       <c r="AD23" t="n">
-        <v>0.1170693278566114</v>
+        <v>0.08910993638213385</v>
       </c>
       <c r="AE23" t="n">
-        <v>0.01350608211748697</v>
+        <v>0.0386590179421132</v>
       </c>
       <c r="AF23" t="n">
-        <v>0.02119678450617712</v>
+        <v>0.03145754708740003</v>
       </c>
       <c r="AG23" t="n">
-        <v>0.01746116073327488</v>
+        <v>0.01437153665633682</v>
       </c>
       <c r="AH23" t="n">
-        <v>0.2159225165257591</v>
+        <v>0.1963916179169492</v>
       </c>
     </row>
     <row r="24">
@@ -3040,94 +3040,94 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>0.1818605125750486</v>
+        <v>0.171532025976935</v>
       </c>
       <c r="F24" t="n">
-        <v>0.06188493176751245</v>
+        <v>0.03703215452887988</v>
       </c>
       <c r="G24" t="n">
-        <v>0.07943078176544063</v>
+        <v>0.03973817490163957</v>
       </c>
       <c r="H24" t="n">
-        <v>0.04824868000466661</v>
+        <v>0.02691677590578567</v>
       </c>
       <c r="I24" t="n">
-        <v>0.07469351563682772</v>
+        <v>0.01457196643181348</v>
       </c>
       <c r="J24" t="n">
-        <v>0.02465848867818419</v>
+        <v>0.04483717679542147</v>
       </c>
       <c r="K24" t="n">
-        <v>0.007993868573083106</v>
+        <v>0.02771009961997666</v>
       </c>
       <c r="L24" t="n">
-        <v>0.005533198605724671</v>
+        <v>0.006190533737967656</v>
       </c>
       <c r="M24" t="n">
-        <v>0.003889587496715378</v>
+        <v>0.002101675808641129</v>
       </c>
       <c r="N24" t="n">
-        <v>0.06806547551256786</v>
+        <v>0.0459927078031954</v>
       </c>
       <c r="O24" t="n">
-        <v>0.03835370324344897</v>
+        <v>0.004284505140700679</v>
       </c>
       <c r="P24" t="n">
-        <v>4.480411756738909e-05</v>
+        <v>0.000321570644855213</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.01093501404113467</v>
+        <v>0.04902274866298905</v>
       </c>
       <c r="R24" t="n">
-        <v>0.01436812993516288</v>
+        <v>0.0646325916656964</v>
       </c>
       <c r="S24" t="n">
-        <v>0.06325032331783953</v>
+        <v>0.06397354918173431</v>
       </c>
       <c r="T24" t="n">
-        <v>0.03240393598564394</v>
+        <v>0.04202006078460972</v>
       </c>
       <c r="U24" t="n">
-        <v>0.0192751084867388</v>
+        <v>0.01149897611283739</v>
       </c>
       <c r="V24" t="n">
-        <v>0.0623794312214899</v>
+        <v>0.06834921916527487</v>
       </c>
       <c r="W24" t="n">
-        <v>0.07575102484582118</v>
+        <v>0.04943309727002226</v>
       </c>
       <c r="X24" t="n">
-        <v>0.002467946308539375</v>
+        <v>0.06152671529237151</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.001180135181199521</v>
+        <v>0.03241856350481721</v>
       </c>
       <c r="Z24" t="n">
-        <v>0.03131945356246705</v>
+        <v>0.06238043335099458</v>
       </c>
       <c r="AA24" t="n">
-        <v>0.05072513475743166</v>
+        <v>0.06994029950544015</v>
       </c>
       <c r="AB24" t="n">
-        <v>0.01067830414840725</v>
+        <v>0.04154940347197061</v>
       </c>
       <c r="AC24" t="n">
-        <v>0.001621595069045544</v>
+        <v>0.003450990855689449</v>
       </c>
       <c r="AD24" t="n">
-        <v>0.05284705076020042</v>
+        <v>0.02417483673640396</v>
       </c>
       <c r="AE24" t="n">
-        <v>0.07770401832736684</v>
+        <v>0.05512704687250352</v>
       </c>
       <c r="AF24" t="n">
-        <v>0.07236106558004304</v>
+        <v>0.042906273245491</v>
       </c>
       <c r="AG24" t="n">
-        <v>0.007935293069729456</v>
+        <v>0.007897853002277307</v>
       </c>
       <c r="AH24" t="n">
-        <v>-0.003889080590678996</v>
+        <v>-0.009526415772110768</v>
       </c>
     </row>
     <row r="25">
@@ -3150,94 +3150,94 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>0.9257629396292683</v>
+        <v>0.8975736319152364</v>
       </c>
       <c r="F25" t="n">
-        <v>0.01027770674172163</v>
+        <v>0.0139324513718298</v>
       </c>
       <c r="G25" t="n">
-        <v>0.009663607390226326</v>
+        <v>0.02900991024472222</v>
       </c>
       <c r="H25" t="n">
-        <v>0.01542864468915233</v>
+        <v>0.02248950855063898</v>
       </c>
       <c r="I25" t="n">
-        <v>0.009679966358108558</v>
+        <v>0.01404675103247998</v>
       </c>
       <c r="J25" t="n">
-        <v>0.02449580721273847</v>
+        <v>0.05772875086162413</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0512796973825551</v>
+        <v>0.04804432512188942</v>
       </c>
       <c r="L25" t="n">
-        <v>0.01621204019801764</v>
+        <v>0.003787716178768858</v>
       </c>
       <c r="M25" t="n">
-        <v>0.01621851901269578</v>
+        <v>0.04661795458140989</v>
       </c>
       <c r="N25" t="n">
-        <v>0.02553145038786706</v>
+        <v>0.03032012642457092</v>
       </c>
       <c r="O25" t="n">
-        <v>0.09093437045348388</v>
+        <v>0.04092735469013523</v>
       </c>
       <c r="P25" t="n">
-        <v>0.08816853866540493</v>
+        <v>0.08677632542064306</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.08295704667504203</v>
+        <v>0.0331288103823105</v>
       </c>
       <c r="R25" t="n">
-        <v>0.06984912793015501</v>
+        <v>0.03362068357366953</v>
       </c>
       <c r="S25" t="n">
-        <v>0.08582807720961995</v>
+        <v>0.007260633621228532</v>
       </c>
       <c r="T25" t="n">
-        <v>0.01349504807901838</v>
+        <v>0.03141124357590492</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08645396331552989</v>
+        <v>0.02931025893542606</v>
       </c>
       <c r="V25" t="n">
-        <v>0.02154130185151385</v>
+        <v>0.001846383867616487</v>
       </c>
       <c r="W25" t="n">
-        <v>0.04855760770157754</v>
+        <v>0.06323440585266271</v>
       </c>
       <c r="X25" t="n">
-        <v>0.03280005638916016</v>
+        <v>0.07587918021334067</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.06681561620142414</v>
+        <v>0.08543240815565524</v>
       </c>
       <c r="Z25" t="n">
-        <v>0.02161248521898047</v>
+        <v>0.02110036618657018</v>
       </c>
       <c r="AA25" t="n">
-        <v>0.0278765920649915</v>
+        <v>0.04318890790427738</v>
       </c>
       <c r="AB25" t="n">
-        <v>0.01493698916375653</v>
+        <v>0.05486692212158062</v>
       </c>
       <c r="AC25" t="n">
-        <v>0.009602862464780704</v>
+        <v>0.0003519927424148013</v>
       </c>
       <c r="AD25" t="n">
-        <v>0.004794310535247983</v>
+        <v>0.01006973965497476</v>
       </c>
       <c r="AE25" t="n">
-        <v>0.0118065358225791</v>
+        <v>0.01711663865213195</v>
       </c>
       <c r="AF25" t="n">
-        <v>0.03957596212395813</v>
+        <v>0.08597675100476758</v>
       </c>
       <c r="AG25" t="n">
-        <v>0.003606068760692836</v>
+        <v>0.01252349907675576</v>
       </c>
       <c r="AH25" t="n">
-        <v>-0.05885498963106307</v>
+        <v>-0.03330076571945329</v>
       </c>
     </row>
     <row r="26">
@@ -3260,94 +3260,94 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>0.1017006669473077</v>
+        <v>0.1000467245267308</v>
       </c>
       <c r="F26" t="n">
-        <v>0.02965714149868</v>
+        <v>0.03687253836630972</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0200365166337369</v>
+        <v>0.008640827486984025</v>
       </c>
       <c r="H26" t="n">
-        <v>0.05140477081095617</v>
+        <v>0.07590486624082557</v>
       </c>
       <c r="I26" t="n">
-        <v>0.02662145548487639</v>
+        <v>0.04027758119491405</v>
       </c>
       <c r="J26" t="n">
-        <v>0.0009789168540454798</v>
+        <v>0.02684071794477039</v>
       </c>
       <c r="K26" t="n">
-        <v>0.01378741610359591</v>
+        <v>0.002288601521545272</v>
       </c>
       <c r="L26" t="n">
-        <v>0.01356256280469154</v>
+        <v>0.006917015376065073</v>
       </c>
       <c r="M26" t="n">
-        <v>0.02207137935179776</v>
+        <v>0.05828945452126945</v>
       </c>
       <c r="N26" t="n">
-        <v>0.05031221918944855</v>
+        <v>0.0005661108236015868</v>
       </c>
       <c r="O26" t="n">
-        <v>0.0393864442463014</v>
+        <v>0.004695716998159735</v>
       </c>
       <c r="P26" t="n">
-        <v>0.05568666335529737</v>
+        <v>0.06208536248664107</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.0496887601839153</v>
+        <v>0.07794488024590786</v>
       </c>
       <c r="R26" t="n">
-        <v>0.03151697367411846</v>
+        <v>0.01484548419933675</v>
       </c>
       <c r="S26" t="n">
-        <v>0.01906556313294662</v>
+        <v>0.0348028282251115</v>
       </c>
       <c r="T26" t="n">
-        <v>0.06016602142367008</v>
+        <v>0.03614277674941885</v>
       </c>
       <c r="U26" t="n">
-        <v>0.05221512423552827</v>
+        <v>0.03293283545411727</v>
       </c>
       <c r="V26" t="n">
-        <v>0.04610117625481897</v>
+        <v>0.06299586141628645</v>
       </c>
       <c r="W26" t="n">
-        <v>0.05717388905867442</v>
+        <v>0.06817320268428874</v>
       </c>
       <c r="X26" t="n">
-        <v>0.02473786377627663</v>
+        <v>0.0368632810692098</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.04386658302259054</v>
+        <v>0.02826482290474889</v>
       </c>
       <c r="Z26" t="n">
-        <v>0.02966524745163375</v>
+        <v>0.01003608866617704</v>
       </c>
       <c r="AA26" t="n">
-        <v>0.01106988877295956</v>
+        <v>0.02965774142984516</v>
       </c>
       <c r="AB26" t="n">
-        <v>0.04601248701063571</v>
+        <v>0.07207726039876784</v>
       </c>
       <c r="AC26" t="n">
-        <v>0.03149291525261337</v>
+        <v>0.05827704444952581</v>
       </c>
       <c r="AD26" t="n">
-        <v>0.02613905086931986</v>
+        <v>0.0004080403462358354</v>
       </c>
       <c r="AE26" t="n">
-        <v>0.06238596158093454</v>
+        <v>0.07298563077196595</v>
       </c>
       <c r="AF26" t="n">
-        <v>0.05469175776988027</v>
+        <v>0.03050737715029586</v>
       </c>
       <c r="AG26" t="n">
-        <v>0.03050525019605617</v>
+        <v>0.009706050877674389</v>
       </c>
       <c r="AH26" t="n">
-        <v>0.1976853164868972</v>
+        <v>0.1917716490241828</v>
       </c>
     </row>
     <row r="27">
@@ -3370,94 +3370,94 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>0.1300883543257085</v>
+        <v>0.1160126628161951</v>
       </c>
       <c r="F27" t="n">
-        <v>0.06923825178811283</v>
+        <v>0.07470703556304706</v>
       </c>
       <c r="G27" t="n">
-        <v>0.06957231436873441</v>
+        <v>0.02662440243007969</v>
       </c>
       <c r="H27" t="n">
-        <v>0.05922067617809749</v>
+        <v>0.08002137151715401</v>
       </c>
       <c r="I27" t="n">
-        <v>0.009558601229977443</v>
+        <v>0.07360768873119292</v>
       </c>
       <c r="J27" t="n">
-        <v>0.01337728868091031</v>
+        <v>0.02404753147775424</v>
       </c>
       <c r="K27" t="n">
-        <v>0.05696636363038673</v>
+        <v>0.04239396030411959</v>
       </c>
       <c r="L27" t="n">
-        <v>0.06826498778596145</v>
+        <v>0.06126287028592332</v>
       </c>
       <c r="M27" t="n">
-        <v>0.009783791059084265</v>
+        <v>0.002824531992126881</v>
       </c>
       <c r="N27" t="n">
-        <v>0.001543787194356743</v>
+        <v>0.0270081429932129</v>
       </c>
       <c r="O27" t="n">
-        <v>0.03830763353238451</v>
+        <v>0.007140868718748915</v>
       </c>
       <c r="P27" t="n">
-        <v>0.01576910930507252</v>
+        <v>0.06746420443766671</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.05772787978854933</v>
+        <v>0.05873670989024189</v>
       </c>
       <c r="R27" t="n">
-        <v>0.02789113709637779</v>
+        <v>0.01522076399027339</v>
       </c>
       <c r="S27" t="n">
-        <v>0.03033398696784282</v>
+        <v>0.007024388866766943</v>
       </c>
       <c r="T27" t="n">
-        <v>0.0124353094670089</v>
+        <v>0.06544655437701345</v>
       </c>
       <c r="U27" t="n">
-        <v>0.02835986698625189</v>
+        <v>0.01445776629854343</v>
       </c>
       <c r="V27" t="n">
-        <v>0.04128788066028596</v>
+        <v>0.08054099495536915</v>
       </c>
       <c r="W27" t="n">
-        <v>0.007390551230154468</v>
+        <v>0.006254732668051743</v>
       </c>
       <c r="X27" t="n">
-        <v>0.01700716927973318</v>
+        <v>0.02707631679366309</v>
       </c>
       <c r="Y27" t="n">
-        <v>0.06884905906374721</v>
+        <v>0.07707260472136322</v>
       </c>
       <c r="Z27" t="n">
-        <v>0.07737734661096085</v>
+        <v>0.05057731326787132</v>
       </c>
       <c r="AA27" t="n">
-        <v>0.07084035186773621</v>
+        <v>0.0233252586642534</v>
       </c>
       <c r="AB27" t="n">
-        <v>0.01890191724921391</v>
+        <v>0.03058826124884229</v>
       </c>
       <c r="AC27" t="n">
-        <v>0.0005064967543111329</v>
+        <v>0.01575010281938008</v>
       </c>
       <c r="AD27" t="n">
-        <v>0.04058284920191185</v>
+        <v>0.01477870511777488</v>
       </c>
       <c r="AE27" t="n">
-        <v>0.01727172998089904</v>
+        <v>0.006557822107092863</v>
       </c>
       <c r="AF27" t="n">
-        <v>0.05863363002015409</v>
+        <v>0.0134033626533464</v>
       </c>
       <c r="AG27" t="n">
-        <v>0.01300003302178286</v>
+        <v>0.006085733109125995</v>
       </c>
       <c r="AH27" t="n">
-        <v>0.2359600277562945</v>
+        <v>0.2238005697415886</v>
       </c>
     </row>
     <row r="28">
@@ -3480,94 +3480,94 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>0.1600495981383978</v>
+        <v>0.1496185289101025</v>
       </c>
       <c r="F28" t="n">
-        <v>0.004668534454142033</v>
+        <v>0.01578726679649597</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0374376953839039</v>
+        <v>0.03936671864278112</v>
       </c>
       <c r="H28" t="n">
-        <v>0.01974235067840006</v>
+        <v>0.08233343827170982</v>
       </c>
       <c r="I28" t="n">
-        <v>0.006053933273456149</v>
+        <v>0.01124246480972546</v>
       </c>
       <c r="J28" t="n">
-        <v>0.02157532801367478</v>
+        <v>0.001609861589892471</v>
       </c>
       <c r="K28" t="n">
-        <v>0.02757886687758407</v>
+        <v>0.05282476326316951</v>
       </c>
       <c r="L28" t="n">
-        <v>0.03651869165526155</v>
+        <v>0.08566979622143346</v>
       </c>
       <c r="M28" t="n">
-        <v>0.07068357713968831</v>
+        <v>0.01646510489117736</v>
       </c>
       <c r="N28" t="n">
-        <v>0.02403082112152614</v>
+        <v>0.07214313519725572</v>
       </c>
       <c r="O28" t="n">
-        <v>0.06050044652319649</v>
+        <v>0.03460406336688518</v>
       </c>
       <c r="P28" t="n">
-        <v>0.01401447636965889</v>
+        <v>0.0760043537489983</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.004748519766303821</v>
+        <v>0.0009653952971286744</v>
       </c>
       <c r="R28" t="n">
-        <v>0.0559225579188159</v>
+        <v>0.05089075324461524</v>
       </c>
       <c r="S28" t="n">
-        <v>0.07420980417064277</v>
+        <v>0.02232511483529316</v>
       </c>
       <c r="T28" t="n">
-        <v>0.03165159868650942</v>
+        <v>0.01109186342389746</v>
       </c>
       <c r="U28" t="n">
-        <v>0.001580466866132064</v>
+        <v>0.01184620057906478</v>
       </c>
       <c r="V28" t="n">
-        <v>0.01364422200860395</v>
+        <v>0.005940601786160076</v>
       </c>
       <c r="W28" t="n">
-        <v>0.04198221350987291</v>
+        <v>0.003739677785184833</v>
       </c>
       <c r="X28" t="n">
-        <v>0.03016046548188747</v>
+        <v>0.07446261092100405</v>
       </c>
       <c r="Y28" t="n">
-        <v>0.05493747008625372</v>
+        <v>0.07258061267073002</v>
       </c>
       <c r="Z28" t="n">
-        <v>0.01512637343786989</v>
+        <v>0.0009106377081220436</v>
       </c>
       <c r="AA28" t="n">
-        <v>0.05758114321033066</v>
+        <v>0.03513858438102521</v>
       </c>
       <c r="AB28" t="n">
-        <v>0.05051271538251339</v>
+        <v>0.04400032447138225</v>
       </c>
       <c r="AC28" t="n">
-        <v>0.04332268000040803</v>
+        <v>0.03269349868794073</v>
       </c>
       <c r="AD28" t="n">
-        <v>0.06876311261219445</v>
+        <v>0.03712856209098181</v>
       </c>
       <c r="AE28" t="n">
-        <v>0.04860159928823209</v>
+        <v>0.06202842949332538</v>
       </c>
       <c r="AF28" t="n">
-        <v>0.07993685934851666</v>
+        <v>0.04178317846368589</v>
       </c>
       <c r="AG28" t="n">
-        <v>0.004513476734420505</v>
+        <v>0.004422987360934142</v>
       </c>
       <c r="AH28" t="n">
-        <v>-0.0142104183448203</v>
+        <v>0.02228585007918493</v>
       </c>
     </row>
     <row r="29">
@@ -3590,94 +3590,94 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>0.5949372481935564</v>
+        <v>0.7111378526281447</v>
       </c>
       <c r="F29" t="n">
-        <v>0.06732261210084113</v>
+        <v>0.0538767940859293</v>
       </c>
       <c r="G29" t="n">
-        <v>0.02027294463951275</v>
+        <v>0.06594883451404382</v>
       </c>
       <c r="H29" t="n">
-        <v>0.05820117649014005</v>
+        <v>0.08218326134457332</v>
       </c>
       <c r="I29" t="n">
-        <v>0.03403239374843411</v>
+        <v>0.03838326755732352</v>
       </c>
       <c r="J29" t="n">
-        <v>0.01791476697321546</v>
+        <v>0.00437318584364708</v>
       </c>
       <c r="K29" t="n">
-        <v>0.07056535553736522</v>
+        <v>0.003929836569261012</v>
       </c>
       <c r="L29" t="n">
-        <v>0.0140515351266304</v>
+        <v>0.04095446476824063</v>
       </c>
       <c r="M29" t="n">
-        <v>0.04034570769861396</v>
+        <v>0.02873487822601521</v>
       </c>
       <c r="N29" t="n">
-        <v>0.05984757202634755</v>
+        <v>0.04526509700181295</v>
       </c>
       <c r="O29" t="n">
-        <v>0.04423371375674717</v>
+        <v>0.06763966332213818</v>
       </c>
       <c r="P29" t="n">
-        <v>0.00601499949227722</v>
+        <v>0.002690404354398209</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.001030943327714186</v>
+        <v>0.0003088125230623025</v>
       </c>
       <c r="R29" t="n">
-        <v>0.04221453885411825</v>
+        <v>0.03909003470087888</v>
       </c>
       <c r="S29" t="n">
-        <v>0.02194544208762584</v>
+        <v>0.0004044696713653381</v>
       </c>
       <c r="T29" t="n">
-        <v>0.04347016403391687</v>
+        <v>0.04499151277728846</v>
       </c>
       <c r="U29" t="n">
-        <v>0.003840119160380501</v>
+        <v>0.01101480715247636</v>
       </c>
       <c r="V29" t="n">
-        <v>0.02276389107790343</v>
+        <v>0.0231377285010892</v>
       </c>
       <c r="W29" t="n">
-        <v>0.04096141732156695</v>
+        <v>0.004247823192325224</v>
       </c>
       <c r="X29" t="n">
-        <v>0.06285064445197129</v>
+        <v>0.02986733701397374</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.06223518471022139</v>
+        <v>0.01669107890779923</v>
       </c>
       <c r="Z29" t="n">
-        <v>0.03635893013690542</v>
+        <v>0.06330190705279656</v>
       </c>
       <c r="AA29" t="n">
-        <v>0.001829056390238088</v>
+        <v>0.06435784371913904</v>
       </c>
       <c r="AB29" t="n">
-        <v>0.007736125315372492</v>
+        <v>0.04975039529705114</v>
       </c>
       <c r="AC29" t="n">
-        <v>0.03506112280092655</v>
+        <v>0.01385210018208042</v>
       </c>
       <c r="AD29" t="n">
-        <v>0.06668183076216742</v>
+        <v>0.04640523371656701</v>
       </c>
       <c r="AE29" t="n">
-        <v>0.03035837038659728</v>
+        <v>0.004877210294622348</v>
       </c>
       <c r="AF29" t="n">
-        <v>0.01602303145893678</v>
+        <v>0.06724714742889606</v>
       </c>
       <c r="AG29" t="n">
-        <v>0.07183641013331218</v>
+        <v>0.08647487028120543</v>
       </c>
       <c r="AH29" t="n">
-        <v>0.06791311995472192</v>
+        <v>0.05635487996235866</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Data/DJI/Efficient Portfolios with Prediction/Manual Recurrence/input 30/DJI_efficient_portfolios_and_returns_with_prediction_annual.xlsx
+++ b/Code/Data/DJI/Efficient Portfolios with Prediction/Manual Recurrence/input 30/DJI_efficient_portfolios_and_returns_with_prediction_annual.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -620,94 +620,94 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.3145952217563693</v>
+        <v>0.2013302788021439</v>
       </c>
       <c r="F2" t="n">
-        <v>0.01104079637183162</v>
+        <v>0.01538134075892228</v>
       </c>
       <c r="G2" t="n">
-        <v>0.05073211127138756</v>
+        <v>0.06561576019617835</v>
       </c>
       <c r="H2" t="n">
-        <v>0.07431635600181395</v>
+        <v>0.03665644186501506</v>
       </c>
       <c r="I2" t="n">
-        <v>0.002149714607934702</v>
+        <v>0.008430697639480539</v>
       </c>
       <c r="J2" t="n">
-        <v>0.03510953426821439</v>
+        <v>0.0726670265571818</v>
       </c>
       <c r="K2" t="n">
-        <v>0.05646025531858164</v>
+        <v>0.005260934075950552</v>
       </c>
       <c r="L2" t="n">
-        <v>0.02797681642391983</v>
+        <v>0.003165620499955568</v>
       </c>
       <c r="M2" t="n">
-        <v>0.03269399830629983</v>
+        <v>0.07382954148630505</v>
       </c>
       <c r="N2" t="n">
-        <v>0.01423303046546506</v>
+        <v>0.006921637806243382</v>
       </c>
       <c r="O2" t="n">
-        <v>0.01588591380662243</v>
+        <v>0.006607004894376772</v>
       </c>
       <c r="P2" t="n">
-        <v>0.05571419622791312</v>
+        <v>0.05756970667254842</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.07516635118470719</v>
+        <v>0.05382632289544027</v>
       </c>
       <c r="R2" t="n">
-        <v>0.05110814560625712</v>
+        <v>0.01600543817143375</v>
       </c>
       <c r="S2" t="n">
-        <v>0.02622613310046076</v>
+        <v>0.05834221824040926</v>
       </c>
       <c r="T2" t="n">
-        <v>0.002844593270585163</v>
+        <v>0.0342172869352955</v>
       </c>
       <c r="U2" t="n">
-        <v>0.06327082191618072</v>
+        <v>0.06878224670436625</v>
       </c>
       <c r="V2" t="n">
-        <v>0.01239850654725313</v>
+        <v>0.003944581730193601</v>
       </c>
       <c r="W2" t="n">
-        <v>0.01057224710462457</v>
+        <v>0.009699510308591147</v>
       </c>
       <c r="X2" t="n">
-        <v>0.0733953319969831</v>
+        <v>0.03188269895391602</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.02999230129671028</v>
+        <v>0.04289966124187627</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.07386430832686573</v>
+        <v>0.03548963058698022</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.05277865921610199</v>
+        <v>0.0397960215428325</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.02003813315509123</v>
+        <v>0.0406505405435619</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.004802047939912115</v>
+        <v>0.006089862653727351</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.01285759957356396</v>
+        <v>0.0443112204298886</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.07345714341627345</v>
+        <v>0.03383024081382537</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.02435217554572263</v>
+        <v>0.05363210708593271</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.01656277773272259</v>
+        <v>0.0744946987095714</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.08815322733340154</v>
+        <v>0.06091455863883025</v>
       </c>
     </row>
     <row r="3">
@@ -730,94 +730,94 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.9344715665890085</v>
+        <v>1.039149664956122</v>
       </c>
       <c r="F3" t="n">
-        <v>0.05909514611127195</v>
+        <v>0.05235951799492953</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04418771528105431</v>
+        <v>0.04474938790422377</v>
       </c>
       <c r="H3" t="n">
-        <v>0.06956168801872453</v>
+        <v>0.05439370209027764</v>
       </c>
       <c r="I3" t="n">
-        <v>0.02645636172273387</v>
+        <v>0.00284324604823194</v>
       </c>
       <c r="J3" t="n">
-        <v>0.05920041567270744</v>
+        <v>0.001313520764232507</v>
       </c>
       <c r="K3" t="n">
-        <v>0.01032770672811134</v>
+        <v>0.04769926407876835</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01249839140474953</v>
+        <v>0.04529160645247795</v>
       </c>
       <c r="M3" t="n">
-        <v>0.01763192576269204</v>
+        <v>0.0006545102830450483</v>
       </c>
       <c r="N3" t="n">
-        <v>0.06469646003098661</v>
+        <v>0.02019123828405251</v>
       </c>
       <c r="O3" t="n">
-        <v>0.0008581219870612978</v>
+        <v>0.02066324367576301</v>
       </c>
       <c r="P3" t="n">
-        <v>0.02970957191477006</v>
+        <v>0.02044429648287138</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.05079317733590557</v>
+        <v>0.05954585550632953</v>
       </c>
       <c r="R3" t="n">
-        <v>0.02128907860446962</v>
+        <v>0.02710181086938632</v>
       </c>
       <c r="S3" t="n">
-        <v>0.04488700026036511</v>
+        <v>0.02896113331196558</v>
       </c>
       <c r="T3" t="n">
-        <v>0.02108736895118223</v>
+        <v>0.05521530836567777</v>
       </c>
       <c r="U3" t="n">
-        <v>0.0606801072509658</v>
+        <v>0.0285557815119193</v>
       </c>
       <c r="V3" t="n">
-        <v>0.06966026757100023</v>
+        <v>0.06051709362252436</v>
       </c>
       <c r="W3" t="n">
-        <v>0.001091693423977324</v>
+        <v>0.001113702121617227</v>
       </c>
       <c r="X3" t="n">
-        <v>0.05621687075144394</v>
+        <v>0.03185191844483073</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.02069200250073037</v>
+        <v>0.06031454226409001</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.005828935349926326</v>
+        <v>0.05019418348974607</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.02196163648367655</v>
+        <v>0.05933822809726937</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.01938013150416044</v>
+        <v>0.05510584276448829</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.04081546978715899</v>
+        <v>0.02163332443281962</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.0665852893912551</v>
+        <v>0.04326097208925535</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.02738318360337715</v>
+        <v>0.02462344018911768</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.0109938542558143</v>
+        <v>0.03663532995141604</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.06643042833972795</v>
+        <v>0.04542799890867312</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.09720123653599541</v>
+        <v>0.1307271089491298</v>
       </c>
     </row>
     <row r="4">
@@ -840,94 +840,94 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.1310270981394174</v>
+        <v>0.146001687737399</v>
       </c>
       <c r="F4" t="n">
-        <v>0.01513571654330885</v>
+        <v>0.03372191463808667</v>
       </c>
       <c r="G4" t="n">
-        <v>0.04401469732513461</v>
+        <v>0.01524174693253773</v>
       </c>
       <c r="H4" t="n">
-        <v>0.06724048050952779</v>
+        <v>0.07206220387405729</v>
       </c>
       <c r="I4" t="n">
-        <v>0.04705383570171421</v>
+        <v>0.004584046292088301</v>
       </c>
       <c r="J4" t="n">
-        <v>0.05926590403941126</v>
+        <v>0.07412833452115727</v>
       </c>
       <c r="K4" t="n">
-        <v>0.00248328042332032</v>
+        <v>0.01549854590275614</v>
       </c>
       <c r="L4" t="n">
-        <v>0.06199293817740385</v>
+        <v>0.02578779763701312</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0386924231596546</v>
+        <v>0.03641494046115118</v>
       </c>
       <c r="N4" t="n">
-        <v>0.0117729207388636</v>
+        <v>0.01231011624273453</v>
       </c>
       <c r="O4" t="n">
-        <v>0.004446459467834887</v>
+        <v>0.02651764755605463</v>
       </c>
       <c r="P4" t="n">
-        <v>0.006627790742865214</v>
+        <v>0.0278291205789129</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.03098912539422241</v>
+        <v>0.02603293752641559</v>
       </c>
       <c r="R4" t="n">
-        <v>0.06537664155161918</v>
+        <v>0.07574428011675571</v>
       </c>
       <c r="S4" t="n">
-        <v>0.06223511831913051</v>
+        <v>0.07597502209748516</v>
       </c>
       <c r="T4" t="n">
-        <v>0.001145554369055096</v>
+        <v>0.001253482643531904</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05418751217720585</v>
+        <v>0.03203077104728551</v>
       </c>
       <c r="V4" t="n">
-        <v>0.05073252905864892</v>
+        <v>0.03815236715975377</v>
       </c>
       <c r="W4" t="n">
-        <v>0.0250805328679053</v>
+        <v>0.02220951262065262</v>
       </c>
       <c r="X4" t="n">
-        <v>0.003168064113466442</v>
+        <v>0.06873110572372419</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.06331237295599894</v>
+        <v>0.02174796068093209</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.06240019453035919</v>
+        <v>0.02570039222282681</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.007874292772601401</v>
+        <v>0.009197597507554668</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.001582187194562716</v>
+        <v>0.003759857656304052</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.06786886926917524</v>
+        <v>0.07679213582209028</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.0292224059400188</v>
+        <v>0.02460778549343976</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.04388175723512243</v>
+        <v>0.06033588357325097</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.01388935439103988</v>
+        <v>0.06753783852613481</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.05832704103082835</v>
+        <v>0.02609465494531217</v>
       </c>
       <c r="AH4" t="n">
-        <v>-0.39586394350955</v>
+        <v>-0.4145087063810201</v>
       </c>
     </row>
     <row r="5">
@@ -950,94 +950,94 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.3956098226736129</v>
+        <v>0.1785102317015239</v>
       </c>
       <c r="F5" t="n">
-        <v>0.006066050113336525</v>
+        <v>0.07277930174526014</v>
       </c>
       <c r="G5" t="n">
-        <v>0.06698430044109557</v>
+        <v>0.05149091155249075</v>
       </c>
       <c r="H5" t="n">
-        <v>0.04999123948042146</v>
+        <v>0.04566092575117743</v>
       </c>
       <c r="I5" t="n">
-        <v>0.04117385385572813</v>
+        <v>0.03307001366300065</v>
       </c>
       <c r="J5" t="n">
-        <v>0.03304216494568082</v>
+        <v>0.02181427959026924</v>
       </c>
       <c r="K5" t="n">
-        <v>0.007148137855836431</v>
+        <v>0.01835172002887718</v>
       </c>
       <c r="L5" t="n">
-        <v>0.04293915541416697</v>
+        <v>0.02459427639164567</v>
       </c>
       <c r="M5" t="n">
-        <v>0.01311414153009743</v>
+        <v>0.04496073675556867</v>
       </c>
       <c r="N5" t="n">
-        <v>0.01282703269626556</v>
+        <v>0.00176519257902511</v>
       </c>
       <c r="O5" t="n">
-        <v>0.01756710827621765</v>
+        <v>0.03637309236643968</v>
       </c>
       <c r="P5" t="n">
-        <v>0.001676524958302351</v>
+        <v>0.01598565279113357</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.04027162029745995</v>
+        <v>0.07637639991043062</v>
       </c>
       <c r="R5" t="n">
-        <v>0.08880399570495276</v>
+        <v>0.07379136366044275</v>
       </c>
       <c r="S5" t="n">
-        <v>0.05178910155836641</v>
+        <v>0.01702393410103941</v>
       </c>
       <c r="T5" t="n">
-        <v>0.08060015540816116</v>
+        <v>0.004461134943896914</v>
       </c>
       <c r="U5" t="n">
-        <v>0.008059910980433037</v>
+        <v>0.04969500345120525</v>
       </c>
       <c r="V5" t="n">
-        <v>0.0346298024881165</v>
+        <v>0.05218393829339911</v>
       </c>
       <c r="W5" t="n">
-        <v>0.06879667097871169</v>
+        <v>0.00801948150409597</v>
       </c>
       <c r="X5" t="n">
-        <v>0.02454244448032668</v>
+        <v>0.01126359568809391</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.005195113023886115</v>
+        <v>0.08307370604686304</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.08202069472295333</v>
+        <v>0.02572464890109197</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.04248275258596044</v>
+        <v>0.07019186981852049</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.0009334348660981295</v>
+        <v>0.002012860574350628</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.08234984530963252</v>
+        <v>0.005025701913125693</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.03580284420349682</v>
+        <v>0.008853113667911482</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.02666777087578732</v>
+        <v>0.05856349443773015</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.0113078267505993</v>
+        <v>0.06099972789246182</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.02321630619790876</v>
+        <v>0.02589392198045257</v>
       </c>
       <c r="AH5" t="n">
-        <v>-0.3385672669325922</v>
+        <v>-0.4290888256076349</v>
       </c>
     </row>
     <row r="6">
@@ -1060,94 +1060,94 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.2372861041288123</v>
+        <v>0.233035053148807</v>
       </c>
       <c r="F6" t="n">
-        <v>0.05208053040782151</v>
+        <v>0.04504579249143137</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04742448697719248</v>
+        <v>0.06254383936501531</v>
       </c>
       <c r="H6" t="n">
-        <v>0.009018271588931061</v>
+        <v>0.01451384571187676</v>
       </c>
       <c r="I6" t="n">
-        <v>0.06251283380400886</v>
+        <v>0.0677896763578496</v>
       </c>
       <c r="J6" t="n">
-        <v>0.01915630114003262</v>
+        <v>0.006500770007583891</v>
       </c>
       <c r="K6" t="n">
-        <v>0.04560748229416796</v>
+        <v>0.007237115610056647</v>
       </c>
       <c r="L6" t="n">
-        <v>0.02604477747234347</v>
+        <v>0.01795216636493963</v>
       </c>
       <c r="M6" t="n">
-        <v>0.01447740359265164</v>
+        <v>0.01917211997224542</v>
       </c>
       <c r="N6" t="n">
-        <v>0.05387569987909473</v>
+        <v>0.05830993173583531</v>
       </c>
       <c r="O6" t="n">
-        <v>0.0006758557136093299</v>
+        <v>0.004075764564882589</v>
       </c>
       <c r="P6" t="n">
-        <v>0.05946159380797102</v>
+        <v>0.01642166161225168</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.02217835327707633</v>
+        <v>0.005548372710621952</v>
       </c>
       <c r="R6" t="n">
-        <v>0.06135762545002947</v>
+        <v>0.0510317612469532</v>
       </c>
       <c r="S6" t="n">
-        <v>0.05929818340654414</v>
+        <v>0.01213309301802732</v>
       </c>
       <c r="T6" t="n">
-        <v>0.07243989877585229</v>
+        <v>0.05162762201616792</v>
       </c>
       <c r="U6" t="n">
-        <v>0.02853668346804829</v>
+        <v>0.001714535629317288</v>
       </c>
       <c r="V6" t="n">
-        <v>0.04314144588958872</v>
+        <v>0.05406844517325372</v>
       </c>
       <c r="W6" t="n">
-        <v>0.02062764709943163</v>
+        <v>0.07900671835019023</v>
       </c>
       <c r="X6" t="n">
-        <v>0.03607098000799548</v>
+        <v>0.02229641748537856</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.02035225359715803</v>
+        <v>0.02245875199525705</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.02114288448222135</v>
+        <v>0.06247782273355412</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.02596573727707042</v>
+        <v>0.03423030267300502</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.06007688648923968</v>
+        <v>0.07118079158313306</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.001469309709276183</v>
+        <v>0.05330777674287916</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.01174563998792435</v>
+        <v>0.03655480910431966</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.05283099363352972</v>
+        <v>0.0270153389768095</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.003911337430772301</v>
+        <v>0.01846557676083745</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.06851890334041696</v>
+        <v>0.0773191800063267</v>
       </c>
       <c r="AH6" t="n">
-        <v>0.224871422970643</v>
+        <v>0.1836515653084748</v>
       </c>
     </row>
     <row r="7">
@@ -1170,94 +1170,94 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.3395866920713598</v>
+        <v>0.2974270049604511</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08231357023983775</v>
+        <v>0.06952942847680592</v>
       </c>
       <c r="G7" t="n">
-        <v>0.05868220774711328</v>
+        <v>0.04425937831310819</v>
       </c>
       <c r="H7" t="n">
-        <v>0.09226417201249913</v>
+        <v>0.06980494241737505</v>
       </c>
       <c r="I7" t="n">
-        <v>0.008346058117626905</v>
+        <v>0.0331606904165865</v>
       </c>
       <c r="J7" t="n">
-        <v>0.06179959555833327</v>
+        <v>0.0082480077441805</v>
       </c>
       <c r="K7" t="n">
-        <v>0.03176865253876394</v>
+        <v>0.05376694830538371</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01005030216211156</v>
+        <v>0.02320198036993275</v>
       </c>
       <c r="M7" t="n">
-        <v>0.06764229435462964</v>
+        <v>0.02578750074726886</v>
       </c>
       <c r="N7" t="n">
-        <v>0.002933069498207214</v>
+        <v>0.04219845141017978</v>
       </c>
       <c r="O7" t="n">
-        <v>0.02990588874508942</v>
+        <v>0.02881225056551312</v>
       </c>
       <c r="P7" t="n">
-        <v>0.01966302453577917</v>
+        <v>0.05150041485713298</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.05116399806060885</v>
+        <v>0.0005525111352824446</v>
       </c>
       <c r="R7" t="n">
-        <v>0.01499450950088196</v>
+        <v>0.01605912732829582</v>
       </c>
       <c r="S7" t="n">
-        <v>0.01530270623211266</v>
+        <v>0.01966041141727683</v>
       </c>
       <c r="T7" t="n">
-        <v>0.04029355953923625</v>
+        <v>0.04729818941253087</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0002926950166287727</v>
+        <v>0.0197150539750112</v>
       </c>
       <c r="V7" t="n">
-        <v>0.01631171997064733</v>
+        <v>0.03445951357950211</v>
       </c>
       <c r="W7" t="n">
-        <v>0.007298063333757702</v>
+        <v>0.03442918472976408</v>
       </c>
       <c r="X7" t="n">
-        <v>0.01572824713168852</v>
+        <v>0.07454625540356799</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.00690321895466134</v>
+        <v>0.0008183601445425651</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.03545501951647591</v>
+        <v>0.01648328627007656</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.03329304768297821</v>
+        <v>0.09427681946330836</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.02016714628481808</v>
+        <v>0.001692457828361055</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.01174956199756125</v>
+        <v>0.04689474517778924</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.09705177750376497</v>
+        <v>0.006768994830635438</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.04407155710658934</v>
+        <v>0.01947708785791757</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.04685811152959255</v>
+        <v>0.09154548728620057</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.07769622512800486</v>
+        <v>0.02505252053646999</v>
       </c>
       <c r="AH7" t="n">
-        <v>0.272224770871786</v>
+        <v>0.3226415608039043</v>
       </c>
     </row>
     <row r="8">
@@ -1280,94 +1280,94 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.2599203547315667</v>
+        <v>0.2606994945799883</v>
       </c>
       <c r="F8" t="n">
-        <v>0.01841742931739711</v>
+        <v>0.03950032572460972</v>
       </c>
       <c r="G8" t="n">
-        <v>0.06234716594044733</v>
+        <v>0.06954999069312934</v>
       </c>
       <c r="H8" t="n">
-        <v>0.003153534176441521</v>
+        <v>0.005277392142151244</v>
       </c>
       <c r="I8" t="n">
-        <v>0.01946047539591085</v>
+        <v>0.028740569926048</v>
       </c>
       <c r="J8" t="n">
-        <v>0.01830574685942774</v>
+        <v>0.01861217222671566</v>
       </c>
       <c r="K8" t="n">
-        <v>0.04063654948782943</v>
+        <v>0.02614331067285024</v>
       </c>
       <c r="L8" t="n">
-        <v>0.06720551868871154</v>
+        <v>0.00337176367870543</v>
       </c>
       <c r="M8" t="n">
-        <v>0.04123020288938048</v>
+        <v>0.01990055484101443</v>
       </c>
       <c r="N8" t="n">
-        <v>0.0009348077160742585</v>
+        <v>0.06593663488503709</v>
       </c>
       <c r="O8" t="n">
-        <v>0.05325946727353892</v>
+        <v>0.02224420124473163</v>
       </c>
       <c r="P8" t="n">
-        <v>0.03076812769391411</v>
+        <v>0.04175143873117913</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.01244796329022447</v>
+        <v>0.01717973602444673</v>
       </c>
       <c r="R8" t="n">
-        <v>0.08308640389407752</v>
+        <v>0.03869345322513349</v>
       </c>
       <c r="S8" t="n">
-        <v>0.0132030263152265</v>
+        <v>0.01548862280238208</v>
       </c>
       <c r="T8" t="n">
-        <v>0.08354309111169522</v>
+        <v>0.0718125372497721</v>
       </c>
       <c r="U8" t="n">
-        <v>0.0115404483344904</v>
+        <v>0.01765647457406252</v>
       </c>
       <c r="V8" t="n">
-        <v>0.03398331839780578</v>
+        <v>0.001455524612584278</v>
       </c>
       <c r="W8" t="n">
-        <v>0.08376672774424983</v>
+        <v>0.0433270989651867</v>
       </c>
       <c r="X8" t="n">
-        <v>0.03789216060632179</v>
+        <v>0.03673783253182836</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.004975469351439814</v>
+        <v>0.05519450616654802</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.003863098791328797</v>
+        <v>0.04073751278167918</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.009457740366462738</v>
+        <v>0.04909544569003437</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.08285978329304258</v>
+        <v>0.03703703658199165</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.03189328027513559</v>
+        <v>0.002740967244894706</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.009733201235394097</v>
+        <v>0.03264696172894984</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.05293780435696583</v>
+        <v>0.06322642796497396</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.0153282071225891</v>
+        <v>0.05339173940185847</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.07376925007447672</v>
+        <v>0.08254976768750158</v>
       </c>
       <c r="AH8" t="n">
-        <v>0.08645905805581128</v>
+        <v>0.1015084768147391</v>
       </c>
     </row>
     <row r="9">
@@ -1390,94 +1390,94 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.3237345677780517</v>
+        <v>0.3362914669481733</v>
       </c>
       <c r="F9" t="n">
-        <v>0.08673195423765109</v>
+        <v>0.08301228760514585</v>
       </c>
       <c r="G9" t="n">
-        <v>0.004264978953766114</v>
+        <v>0.02911107416188543</v>
       </c>
       <c r="H9" t="n">
-        <v>0.01839952290572731</v>
+        <v>0.04693729801668268</v>
       </c>
       <c r="I9" t="n">
-        <v>0.04200639961624412</v>
+        <v>0.002893548962052653</v>
       </c>
       <c r="J9" t="n">
-        <v>6.090835070815417e-05</v>
+        <v>0.0140521251519338</v>
       </c>
       <c r="K9" t="n">
-        <v>0.08333657497035407</v>
+        <v>0.08756903927466962</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0209795009355868</v>
+        <v>0.004830502280198418</v>
       </c>
       <c r="M9" t="n">
-        <v>0.009060934760714285</v>
+        <v>0.01159274800111551</v>
       </c>
       <c r="N9" t="n">
-        <v>0.06200731295744733</v>
+        <v>0.0741738781913453</v>
       </c>
       <c r="O9" t="n">
-        <v>0.0627707620903688</v>
+        <v>0.07380800730007192</v>
       </c>
       <c r="P9" t="n">
-        <v>0.003055246509298999</v>
+        <v>0.01772024438959153</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.002918391293769217</v>
+        <v>0.04622228711438699</v>
       </c>
       <c r="R9" t="n">
-        <v>0.06530217428763757</v>
+        <v>0.0290023254160315</v>
       </c>
       <c r="S9" t="n">
-        <v>0.002429996552540438</v>
+        <v>0.04955985746003244</v>
       </c>
       <c r="T9" t="n">
-        <v>0.001152570407437571</v>
+        <v>0.05434564020031605</v>
       </c>
       <c r="U9" t="n">
-        <v>0.04512233325455255</v>
+        <v>0.05937883506986875</v>
       </c>
       <c r="V9" t="n">
-        <v>0.06087854502758596</v>
+        <v>0.01301460661150997</v>
       </c>
       <c r="W9" t="n">
-        <v>0.01048812400885758</v>
+        <v>0.01042685700429728</v>
       </c>
       <c r="X9" t="n">
-        <v>0.05856870404238711</v>
+        <v>0.03268364389722567</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.04328346985137033</v>
+        <v>0.06918942612917624</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.08471049997501785</v>
+        <v>0.0495084223214343</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.01029046274403994</v>
+        <v>0.05820582435995665</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.07116185211190805</v>
+        <v>0.02545297211776703</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.08756759864633915</v>
+        <v>0.01650317166212359</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.01158385182526325</v>
+        <v>0.001550164077073273</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.01664962862134909</v>
+        <v>0.001037581441572744</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.02816055090475941</v>
+        <v>0.03072708248417303</v>
       </c>
       <c r="AG9" t="n">
-        <v>0.00705715015731784</v>
+        <v>0.007490549298361654</v>
       </c>
       <c r="AH9" t="n">
-        <v>0.1269090409631717</v>
+        <v>0.1370387726508655</v>
       </c>
     </row>
     <row r="10">
@@ -1500,94 +1500,94 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.3221171251599516</v>
+        <v>0.2880405358095611</v>
       </c>
       <c r="F10" t="n">
-        <v>0.02017471606031248</v>
+        <v>0.06867487610861484</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04412686103987321</v>
+        <v>0.04290252749334988</v>
       </c>
       <c r="H10" t="n">
-        <v>0.07454589904940366</v>
+        <v>0.005966396070601148</v>
       </c>
       <c r="I10" t="n">
-        <v>0.04106043049571881</v>
+        <v>0.07706779595517527</v>
       </c>
       <c r="J10" t="n">
-        <v>0.02770815628267723</v>
+        <v>0.04740511536265071</v>
       </c>
       <c r="K10" t="n">
-        <v>0.02061323374793063</v>
+        <v>0.004157402338816424</v>
       </c>
       <c r="L10" t="n">
-        <v>0.05377062360377764</v>
+        <v>0.07496232355046119</v>
       </c>
       <c r="M10" t="n">
-        <v>0.006980862328444968</v>
+        <v>0.01707677850869709</v>
       </c>
       <c r="N10" t="n">
-        <v>0.04664167489999506</v>
+        <v>0.0116288465901467</v>
       </c>
       <c r="O10" t="n">
-        <v>0.06518523933945744</v>
+        <v>0.01670224644700436</v>
       </c>
       <c r="P10" t="n">
-        <v>0.007519720942439087</v>
+        <v>0.03182377426273589</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.02123190933759834</v>
+        <v>0.0006783601316527345</v>
       </c>
       <c r="R10" t="n">
-        <v>0.05226474794985015</v>
+        <v>0.04115554395333013</v>
       </c>
       <c r="S10" t="n">
-        <v>0.01963043520571175</v>
+        <v>0.04699554233350673</v>
       </c>
       <c r="T10" t="n">
-        <v>0.07610612928360101</v>
+        <v>0.07982376454968095</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03293694590685974</v>
+        <v>0.03922696001978856</v>
       </c>
       <c r="V10" t="n">
-        <v>0.03683825722728822</v>
+        <v>0.0319483521133077</v>
       </c>
       <c r="W10" t="n">
-        <v>0.009206311472846731</v>
+        <v>0.007259629095077596</v>
       </c>
       <c r="X10" t="n">
-        <v>0.0437558364414306</v>
+        <v>0.01481345635275079</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.04380345388433582</v>
+        <v>0.00860142975259175</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.01244511196251456</v>
+        <v>0.0004473048456056175</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.008129639086477673</v>
+        <v>0.02250759450602459</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.0616105709737095</v>
+        <v>0.03993471232050752</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.01851093252891584</v>
+        <v>0.0706895180030593</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.06497385976549608</v>
+        <v>0.06560024361490188</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.007849230594258324</v>
+        <v>0.0005993250705184828</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.04334378917944736</v>
+        <v>0.07217936779238349</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.03903542140962828</v>
+        <v>0.05917081285705878</v>
       </c>
       <c r="AH10" t="n">
-        <v>-0.0002268147440498427</v>
+        <v>0.04704933322488328</v>
       </c>
     </row>
     <row r="11">
@@ -1610,94 +1610,94 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.772953312009014</v>
+        <v>0.9601347851134984</v>
       </c>
       <c r="F11" t="n">
-        <v>0.07856783429919224</v>
+        <v>0.06302999264053674</v>
       </c>
       <c r="G11" t="n">
-        <v>0.06993959429775506</v>
+        <v>0.02917476478471168</v>
       </c>
       <c r="H11" t="n">
-        <v>0.03337661039200198</v>
+        <v>0.04160111842339191</v>
       </c>
       <c r="I11" t="n">
-        <v>0.02328422652123497</v>
+        <v>0.001562875197161447</v>
       </c>
       <c r="J11" t="n">
-        <v>0.02286945083530819</v>
+        <v>0.01694847229129665</v>
       </c>
       <c r="K11" t="n">
-        <v>0.003337233759486299</v>
+        <v>0.01692470967193102</v>
       </c>
       <c r="L11" t="n">
-        <v>0.03567170818450316</v>
+        <v>0.09007309628510744</v>
       </c>
       <c r="M11" t="n">
-        <v>0.01569137497805202</v>
+        <v>0.06125928991862849</v>
       </c>
       <c r="N11" t="n">
-        <v>0.05614670138040858</v>
+        <v>0.006333387491339782</v>
       </c>
       <c r="O11" t="n">
-        <v>0.08463632415462739</v>
+        <v>0.01500930944276248</v>
       </c>
       <c r="P11" t="n">
-        <v>0.08687112110659763</v>
+        <v>0.04224384998830323</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.008080939694204259</v>
+        <v>0.08888498629466036</v>
       </c>
       <c r="R11" t="n">
-        <v>0.0786513265349854</v>
+        <v>0.000966239742744581</v>
       </c>
       <c r="S11" t="n">
-        <v>0.04368851204649169</v>
+        <v>0.007587665087897624</v>
       </c>
       <c r="T11" t="n">
-        <v>0.03163341243318343</v>
+        <v>0.05210235887053693</v>
       </c>
       <c r="U11" t="n">
-        <v>0.003796736117639195</v>
+        <v>0.01629338270374272</v>
       </c>
       <c r="V11" t="n">
-        <v>0.01717220012798703</v>
+        <v>0.0007209338165985798</v>
       </c>
       <c r="W11" t="n">
-        <v>0.001755010109964629</v>
+        <v>0.06168502458732085</v>
       </c>
       <c r="X11" t="n">
-        <v>0.05850121714936175</v>
+        <v>0.06322652894815319</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.007475838106775155</v>
+        <v>0.05856680775273745</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.03732465498701571</v>
+        <v>0.026117005967494</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.03101869781789278</v>
+        <v>0.01287171785835914</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.00500732820833523</v>
+        <v>0.002015516567025211</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.0003334198945382149</v>
+        <v>0.0807257042738731</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.04589284251300715</v>
+        <v>0.03525227765961429</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.08216088139569772</v>
+        <v>0.05590182571739235</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.009178967657033811</v>
+        <v>0.04941950306092377</v>
       </c>
       <c r="AG11" t="n">
-        <v>0.02793583529671923</v>
+        <v>0.003501654955754974</v>
       </c>
       <c r="AH11" t="n">
-        <v>0.03396086582882882</v>
+        <v>0.03773178224432856</v>
       </c>
     </row>
     <row r="12">
@@ -1720,94 +1720,94 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.1795405446170028</v>
+        <v>0.1722440658327343</v>
       </c>
       <c r="F12" t="n">
-        <v>0.03721466930155962</v>
+        <v>0.01945447976467974</v>
       </c>
       <c r="G12" t="n">
-        <v>0.004016794101348233</v>
+        <v>0.05718746621751196</v>
       </c>
       <c r="H12" t="n">
-        <v>0.003776574055028346</v>
+        <v>0.05153433144395986</v>
       </c>
       <c r="I12" t="n">
-        <v>0.01162082528769268</v>
+        <v>0.02128908572694184</v>
       </c>
       <c r="J12" t="n">
-        <v>0.02726192908680309</v>
+        <v>0.03644614087762332</v>
       </c>
       <c r="K12" t="n">
-        <v>0.05043684260987143</v>
+        <v>0.01960525821103321</v>
       </c>
       <c r="L12" t="n">
-        <v>0.07163542089957682</v>
+        <v>0.06666461964463255</v>
       </c>
       <c r="M12" t="n">
-        <v>0.001812816871884989</v>
+        <v>0.05398339518530489</v>
       </c>
       <c r="N12" t="n">
-        <v>0.07785678000330434</v>
+        <v>0.0683824624629125</v>
       </c>
       <c r="O12" t="n">
-        <v>0.05286358122419153</v>
+        <v>0.05034442021762085</v>
       </c>
       <c r="P12" t="n">
-        <v>0.06286588166278488</v>
+        <v>0.01037353341484878</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.02986432931055823</v>
+        <v>0.02764755998594522</v>
       </c>
       <c r="R12" t="n">
-        <v>0.002267969479571361</v>
+        <v>0.001910314585211768</v>
       </c>
       <c r="S12" t="n">
-        <v>0.04285783374224157</v>
+        <v>0.01681651204246238</v>
       </c>
       <c r="T12" t="n">
-        <v>0.02050002379690104</v>
+        <v>0.05464319697881748</v>
       </c>
       <c r="U12" t="n">
-        <v>0.03778702662958901</v>
+        <v>0.03567436692995448</v>
       </c>
       <c r="V12" t="n">
-        <v>0.03691058298382898</v>
+        <v>0.03637356663143766</v>
       </c>
       <c r="W12" t="n">
-        <v>0.003325879486947188</v>
+        <v>0.0002228197859267392</v>
       </c>
       <c r="X12" t="n">
-        <v>0.05236665131436351</v>
+        <v>0.03252805708584434</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.05651482172881482</v>
+        <v>0.02104362909604729</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.08402201062785929</v>
+        <v>0.061832279150165</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.05156157755789739</v>
+        <v>0.05011352405280434</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.003977859475881111</v>
+        <v>0.02823389350213614</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.01738660074264834</v>
+        <v>0.06872914935568838</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.02918006337266665</v>
+        <v>0.0480430566181583</v>
       </c>
       <c r="AE12" t="n">
-        <v>0.06813732060025156</v>
+        <v>0.04457659606974513</v>
       </c>
       <c r="AF12" t="n">
-        <v>0.06141781110140199</v>
+        <v>0.01379296693796092</v>
       </c>
       <c r="AG12" t="n">
-        <v>0.0005595229445317624</v>
+        <v>0.0025533180246247</v>
       </c>
       <c r="AH12" t="n">
-        <v>0.1371822776914079</v>
+        <v>0.1219543408696468</v>
       </c>
     </row>
     <row r="13">
@@ -1830,94 +1830,94 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.9323946853666377</v>
+        <v>1.033768418201586</v>
       </c>
       <c r="F13" t="n">
-        <v>0.03428883372516658</v>
+        <v>0.0262830708295913</v>
       </c>
       <c r="G13" t="n">
-        <v>0.08435900413736901</v>
+        <v>0.05974908713886304</v>
       </c>
       <c r="H13" t="n">
-        <v>0.04608999097467218</v>
+        <v>0.03619706155732434</v>
       </c>
       <c r="I13" t="n">
-        <v>0.003517243512251013</v>
+        <v>0.002373588922102445</v>
       </c>
       <c r="J13" t="n">
-        <v>0.07900037291058042</v>
+        <v>0.07522574482735951</v>
       </c>
       <c r="K13" t="n">
-        <v>0.002734962327556961</v>
+        <v>0.05268350087837801</v>
       </c>
       <c r="L13" t="n">
-        <v>0.04238072760129136</v>
+        <v>0.01934633571047906</v>
       </c>
       <c r="M13" t="n">
-        <v>0.06029374463423532</v>
+        <v>0.02876161530874007</v>
       </c>
       <c r="N13" t="n">
-        <v>0.04394690072940623</v>
+        <v>0.04184658140171247</v>
       </c>
       <c r="O13" t="n">
-        <v>0.0003622018158990621</v>
+        <v>0.008535703584410506</v>
       </c>
       <c r="P13" t="n">
-        <v>0.07706516778602583</v>
+        <v>0.0005198422881542747</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.002582907002135023</v>
+        <v>0.06596826011657983</v>
       </c>
       <c r="R13" t="n">
-        <v>0.03234228692296741</v>
+        <v>0.004242849865518328</v>
       </c>
       <c r="S13" t="n">
-        <v>0.05126709125829928</v>
+        <v>0.07572339345269176</v>
       </c>
       <c r="T13" t="n">
-        <v>0.06404118349234485</v>
+        <v>0.05175115096444386</v>
       </c>
       <c r="U13" t="n">
-        <v>0.05462043450731502</v>
+        <v>0.04030989827958029</v>
       </c>
       <c r="V13" t="n">
-        <v>0.007456524643956288</v>
+        <v>0.03787591803446094</v>
       </c>
       <c r="W13" t="n">
-        <v>0.0912308548733322</v>
+        <v>0.09368041597954749</v>
       </c>
       <c r="X13" t="n">
-        <v>0.02664964346798572</v>
+        <v>0.004429306479758096</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.009468021978703696</v>
+        <v>0.03047275941666236</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.01457720283632714</v>
+        <v>0.01943086475454318</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.04150445134940144</v>
+        <v>0.03649639656933655</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.06491849935027465</v>
+        <v>0.02836481166470188</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.03003144428909062</v>
+        <v>0.03786382258914818</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.02618074185088586</v>
+        <v>0.04902062980232075</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.002553617557265199</v>
+        <v>0.0357653811108477</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.0007751521884142602</v>
+        <v>0.03090068029498141</v>
       </c>
       <c r="AG13" t="n">
-        <v>0.005760792276847391</v>
+        <v>0.00618132817776235</v>
       </c>
       <c r="AH13" t="n">
-        <v>0.09569972464618243</v>
+        <v>0.08924474581767286</v>
       </c>
     </row>
     <row r="14">
@@ -1940,94 +1940,94 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.1503308028797681</v>
+        <v>0.1509131350687205</v>
       </c>
       <c r="F14" t="n">
-        <v>0.01034258030252854</v>
+        <v>0.07020176480385344</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0008205179817248815</v>
+        <v>0.001868965031875214</v>
       </c>
       <c r="H14" t="n">
-        <v>0.02463981134376913</v>
+        <v>0.06310529072943022</v>
       </c>
       <c r="I14" t="n">
-        <v>0.05256054525796133</v>
+        <v>0.07664371934604876</v>
       </c>
       <c r="J14" t="n">
-        <v>0.004800070934434634</v>
+        <v>0.04244515094947505</v>
       </c>
       <c r="K14" t="n">
-        <v>0.06203739063452035</v>
+        <v>0.007021992605582313</v>
       </c>
       <c r="L14" t="n">
-        <v>0.04353041344497642</v>
+        <v>0.02915339641527498</v>
       </c>
       <c r="M14" t="n">
-        <v>0.03635174902866627</v>
+        <v>0.003694304243868165</v>
       </c>
       <c r="N14" t="n">
-        <v>0.03401102613563739</v>
+        <v>0.06883281160472518</v>
       </c>
       <c r="O14" t="n">
-        <v>0.02375223673973416</v>
+        <v>0.05881365511857559</v>
       </c>
       <c r="P14" t="n">
-        <v>0.0008124742629014195</v>
+        <v>0.001851017810039013</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.004232651166856486</v>
+        <v>0.002063834608393518</v>
       </c>
       <c r="R14" t="n">
-        <v>0.07850712882666164</v>
+        <v>0.02238353266095124</v>
       </c>
       <c r="S14" t="n">
-        <v>0.0801409417456715</v>
+        <v>0.05370075452857832</v>
       </c>
       <c r="T14" t="n">
-        <v>0.06277613037222539</v>
+        <v>0.01661265634348901</v>
       </c>
       <c r="U14" t="n">
-        <v>0.0429298158764508</v>
+        <v>0.0123755330494349</v>
       </c>
       <c r="V14" t="n">
-        <v>0.01674347320798714</v>
+        <v>0.07896788143924435</v>
       </c>
       <c r="W14" t="n">
-        <v>0.07845657513265164</v>
+        <v>0.08283687933946904</v>
       </c>
       <c r="X14" t="n">
-        <v>0.03639115345515209</v>
+        <v>0.06092775027218451</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.04250320614700491</v>
+        <v>0.02269766174963755</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.002126919716354054</v>
+        <v>0.04130486869507258</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.0129361161014979</v>
+        <v>0.02690996009144673</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.07959005345181462</v>
+        <v>0.02628227974849451</v>
       </c>
       <c r="AC14" t="n">
-        <v>0.02417134811766713</v>
+        <v>0.01322173206629551</v>
       </c>
       <c r="AD14" t="n">
-        <v>0.02167144726103981</v>
+        <v>0.008178828313555275</v>
       </c>
       <c r="AE14" t="n">
-        <v>0.02096566239976823</v>
+        <v>0.07393665672088472</v>
       </c>
       <c r="AF14" t="n">
-        <v>0.04601397599323082</v>
+        <v>0.01389320762444659</v>
       </c>
       <c r="AG14" t="n">
-        <v>0.05618458496111136</v>
+        <v>0.02007391408967378</v>
       </c>
       <c r="AH14" t="n">
-        <v>0.2167102398658949</v>
+        <v>0.231658027129248</v>
       </c>
     </row>
     <row r="15">
@@ -2050,94 +2050,94 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.8639130909488822</v>
+        <v>0.7210729439176966</v>
       </c>
       <c r="F15" t="n">
-        <v>0.024506126103125</v>
+        <v>0.0138357386606083</v>
       </c>
       <c r="G15" t="n">
-        <v>0.01305012600616037</v>
+        <v>0.07573987088960567</v>
       </c>
       <c r="H15" t="n">
-        <v>0.04694353831176928</v>
+        <v>0.07823836105147021</v>
       </c>
       <c r="I15" t="n">
-        <v>0.06589923021527061</v>
+        <v>0.03672779009729642</v>
       </c>
       <c r="J15" t="n">
-        <v>0.05367030894789156</v>
+        <v>0.02126281096693391</v>
       </c>
       <c r="K15" t="n">
-        <v>0.0270391880274086</v>
+        <v>0.07835978783985544</v>
       </c>
       <c r="L15" t="n">
-        <v>0.001560798700518339</v>
+        <v>0.04600419669477492</v>
       </c>
       <c r="M15" t="n">
-        <v>0.005077557730969038</v>
+        <v>0.02268031879317712</v>
       </c>
       <c r="N15" t="n">
-        <v>0.07549367223752008</v>
+        <v>0.06781282077361139</v>
       </c>
       <c r="O15" t="n">
-        <v>0.01037440561719895</v>
+        <v>0.01655196123338275</v>
       </c>
       <c r="P15" t="n">
-        <v>0.07758279647832701</v>
+        <v>0.01580807329812264</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.01192296518033501</v>
+        <v>0.05745735990241106</v>
       </c>
       <c r="R15" t="n">
-        <v>0.0622498413453844</v>
+        <v>0.004527446355834065</v>
       </c>
       <c r="S15" t="n">
-        <v>0.02461449585153617</v>
+        <v>0.02393110395442627</v>
       </c>
       <c r="T15" t="n">
-        <v>0.02580401087556204</v>
+        <v>0.04131156744785613</v>
       </c>
       <c r="U15" t="n">
-        <v>0.001723105590014972</v>
+        <v>0.06474315267311401</v>
       </c>
       <c r="V15" t="n">
-        <v>0.0005127369628654496</v>
+        <v>0.06686408904523068</v>
       </c>
       <c r="W15" t="n">
-        <v>0.02119369151491492</v>
+        <v>0.04478061124600693</v>
       </c>
       <c r="X15" t="n">
-        <v>0.03027859589697692</v>
+        <v>0.01303865134183768</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.0006470550857215128</v>
+        <v>0.03710323139034109</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.08096848846501438</v>
+        <v>0.002237949753941752</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.06228933144457899</v>
+        <v>0.002393864656269065</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.06300957173653031</v>
+        <v>0.03342353091387188</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.008829731534414305</v>
+        <v>0.02097150124064554</v>
       </c>
       <c r="AD15" t="n">
-        <v>0.05527899733942888</v>
+        <v>0.01878333920825516</v>
       </c>
       <c r="AE15" t="n">
-        <v>0.0534919870216581</v>
+        <v>0.006896548229695933</v>
       </c>
       <c r="AF15" t="n">
-        <v>0.06206226457838434</v>
+        <v>0.01797650392088951</v>
       </c>
       <c r="AG15" t="n">
-        <v>0.03392538120052055</v>
+        <v>0.07053781842053436</v>
       </c>
       <c r="AH15" t="n">
-        <v>0.2640720401677575</v>
+        <v>0.2457655062503053</v>
       </c>
     </row>
     <row r="16">
@@ -2160,94 +2160,94 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.2104626210831545</v>
+        <v>0.1963627098851753</v>
       </c>
       <c r="F16" t="n">
-        <v>0.04574044041154481</v>
+        <v>0.06071695461436992</v>
       </c>
       <c r="G16" t="n">
-        <v>0.05942799468058313</v>
+        <v>0.05681829541803345</v>
       </c>
       <c r="H16" t="n">
-        <v>0.002991276423864147</v>
+        <v>0.001535194938435768</v>
       </c>
       <c r="I16" t="n">
-        <v>0.02719362252542957</v>
+        <v>0.03786083691216378</v>
       </c>
       <c r="J16" t="n">
-        <v>0.07112420504150782</v>
+        <v>0.0615884911935437</v>
       </c>
       <c r="K16" t="n">
-        <v>0.01418692237772555</v>
+        <v>0.06278053433332594</v>
       </c>
       <c r="L16" t="n">
-        <v>0.05232788807580022</v>
+        <v>0.04662590766175422</v>
       </c>
       <c r="M16" t="n">
-        <v>0.002441124524390212</v>
+        <v>0.03957095081985764</v>
       </c>
       <c r="N16" t="n">
-        <v>0.00479220348517137</v>
+        <v>0.01019644769702382</v>
       </c>
       <c r="O16" t="n">
-        <v>0.04879751115014568</v>
+        <v>0.03035475982709889</v>
       </c>
       <c r="P16" t="n">
-        <v>0.06174013331526849</v>
+        <v>0.04445412038765514</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.0486471469832303</v>
+        <v>0.009883156157311428</v>
       </c>
       <c r="R16" t="n">
-        <v>0.02528831088381979</v>
+        <v>0.04335405373207561</v>
       </c>
       <c r="S16" t="n">
-        <v>0.05591661361508239</v>
+        <v>0.01334565644956202</v>
       </c>
       <c r="T16" t="n">
-        <v>0.03463944076984199</v>
+        <v>0.02575058755408711</v>
       </c>
       <c r="U16" t="n">
-        <v>0.05951955162390946</v>
+        <v>0.0638747354757119</v>
       </c>
       <c r="V16" t="n">
-        <v>0.02515973707624767</v>
+        <v>0.02771146981935869</v>
       </c>
       <c r="W16" t="n">
-        <v>0.04882083533093034</v>
+        <v>0.04102699836144256</v>
       </c>
       <c r="X16" t="n">
-        <v>0.005419697461553253</v>
+        <v>0.01328460058861257</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.0173329916327368</v>
+        <v>0.04792987593548007</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.002326799995902195</v>
+        <v>0.002010304165356424</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.05474059527116738</v>
+        <v>0.02954758607978509</v>
       </c>
       <c r="AB16" t="n">
-        <v>0.02156890332334792</v>
+        <v>0.04981672171722702</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.05772180568633307</v>
+        <v>0.01940822691499662</v>
       </c>
       <c r="AD16" t="n">
-        <v>0.0365203583292255</v>
+        <v>0.04755631782390021</v>
       </c>
       <c r="AE16" t="n">
-        <v>0.03794280512974643</v>
+        <v>0.04546383202842635</v>
       </c>
       <c r="AF16" t="n">
-        <v>0.01062115840600218</v>
+        <v>0.01579526015648242</v>
       </c>
       <c r="AG16" t="n">
-        <v>0.06704992646949239</v>
+        <v>0.05173812323692165</v>
       </c>
       <c r="AH16" t="n">
-        <v>0.1429041827411249</v>
+        <v>0.119046778688261</v>
       </c>
     </row>
     <row r="17">
@@ -2270,94 +2270,94 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.7674731225915274</v>
+        <v>0.2326110113995141</v>
       </c>
       <c r="F17" t="n">
-        <v>0.01066466137806093</v>
+        <v>0.07031559823182366</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03448653363038619</v>
+        <v>0.06197878687844174</v>
       </c>
       <c r="H17" t="n">
-        <v>0.06251890647858017</v>
+        <v>0.005069876272377946</v>
       </c>
       <c r="I17" t="n">
-        <v>0.05132726581481118</v>
+        <v>0.06208633230231351</v>
       </c>
       <c r="J17" t="n">
-        <v>0.05973081123527477</v>
+        <v>0.05363875033993834</v>
       </c>
       <c r="K17" t="n">
-        <v>0.04200715688153595</v>
+        <v>0.04062182064808204</v>
       </c>
       <c r="L17" t="n">
-        <v>0.006752203196723579</v>
+        <v>0.03781684223464622</v>
       </c>
       <c r="M17" t="n">
-        <v>0.0513687221612136</v>
+        <v>0.06086241497330638</v>
       </c>
       <c r="N17" t="n">
-        <v>0.0009747000335697239</v>
+        <v>0.01399879052478707</v>
       </c>
       <c r="O17" t="n">
-        <v>0.01969464306722634</v>
+        <v>0.03213132589140724</v>
       </c>
       <c r="P17" t="n">
-        <v>0.05999944683689735</v>
+        <v>0.01508656774745998</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.05093079868816148</v>
+        <v>0.05363859183958376</v>
       </c>
       <c r="R17" t="n">
-        <v>0.05131313856434711</v>
+        <v>0.01690760681141383</v>
       </c>
       <c r="S17" t="n">
-        <v>0.01988305010063515</v>
+        <v>0.04720652775908109</v>
       </c>
       <c r="T17" t="n">
-        <v>0.04928450343655316</v>
+        <v>0.03069502471473047</v>
       </c>
       <c r="U17" t="n">
-        <v>0.06108032455079701</v>
+        <v>0.03047857815231045</v>
       </c>
       <c r="V17" t="n">
-        <v>0.02036362113090772</v>
+        <v>0.02193102423131893</v>
       </c>
       <c r="W17" t="n">
-        <v>0.02684453354619475</v>
+        <v>0.04665737771828594</v>
       </c>
       <c r="X17" t="n">
-        <v>0.03264863158560845</v>
+        <v>0.007352041279227602</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.03789596474034045</v>
+        <v>0.02683333461526475</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.006506954233122958</v>
+        <v>0.009808894947150268</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.06071698973135933</v>
+        <v>0.06518723283692424</v>
       </c>
       <c r="AB17" t="n">
-        <v>0.05454575417873564</v>
+        <v>0.03255972376256408</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.03636214041891823</v>
+        <v>0.02243657336003227</v>
       </c>
       <c r="AD17" t="n">
-        <v>0.02710396403574512</v>
+        <v>0.0008891513848492627</v>
       </c>
       <c r="AE17" t="n">
-        <v>0.04361800325177027</v>
+        <v>0.05844221487237197</v>
       </c>
       <c r="AF17" t="n">
-        <v>0.003800938611629142</v>
+        <v>0.006935951164877671</v>
       </c>
       <c r="AG17" t="n">
-        <v>0.01757563848089426</v>
+        <v>0.06843304450542911</v>
       </c>
       <c r="AH17" t="n">
-        <v>0.0943169704345611</v>
+        <v>0.1156884937184325</v>
       </c>
     </row>
     <row r="18">
@@ -2380,94 +2380,94 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.3347387368562358</v>
+        <v>0.358727479586494</v>
       </c>
       <c r="F18" t="n">
-        <v>0.006130896520934562</v>
+        <v>0.00538690411212329</v>
       </c>
       <c r="G18" t="n">
-        <v>0.04699716072653157</v>
+        <v>0.05645119246509808</v>
       </c>
       <c r="H18" t="n">
-        <v>0.012284846323038</v>
+        <v>0.01594144948480809</v>
       </c>
       <c r="I18" t="n">
-        <v>0.07568200041239059</v>
+        <v>0.02715724691754064</v>
       </c>
       <c r="J18" t="n">
-        <v>0.0484118812860684</v>
+        <v>0.05295007082581895</v>
       </c>
       <c r="K18" t="n">
-        <v>0.002647858345965506</v>
+        <v>0.03106429407101161</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0802795366283785</v>
+        <v>0.01263962160928779</v>
       </c>
       <c r="M18" t="n">
-        <v>0.06867529428929885</v>
+        <v>0.03448104657078117</v>
       </c>
       <c r="N18" t="n">
-        <v>0.08007005175785477</v>
+        <v>0.08316221380846701</v>
       </c>
       <c r="O18" t="n">
-        <v>0.01309418879132393</v>
+        <v>0.0005846969095118806</v>
       </c>
       <c r="P18" t="n">
-        <v>0.02897293515412043</v>
+        <v>0.02995622661689076</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.003678336049623656</v>
+        <v>0.01593208918958637</v>
       </c>
       <c r="R18" t="n">
-        <v>0.02759817701305059</v>
+        <v>0.001948107125998804</v>
       </c>
       <c r="S18" t="n">
-        <v>0.059867348786751</v>
+        <v>0.005189200159414624</v>
       </c>
       <c r="T18" t="n">
-        <v>0.04470724280455415</v>
+        <v>0.08115592778702889</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06039056267253211</v>
+        <v>0.03873389873009043</v>
       </c>
       <c r="V18" t="n">
-        <v>0.01207583129842295</v>
+        <v>0.01408534274849259</v>
       </c>
       <c r="W18" t="n">
-        <v>0.08276319298302522</v>
+        <v>0.0101461185997111</v>
       </c>
       <c r="X18" t="n">
-        <v>0.06264941184818545</v>
+        <v>0.08040450537036861</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.03541513007584805</v>
+        <v>0.02842105788148138</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.002635677191145676</v>
+        <v>0.02111404160619438</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.01890191812603422</v>
+        <v>0.006525047842729923</v>
       </c>
       <c r="AB18" t="n">
-        <v>0.007911864650530974</v>
+        <v>0.007448664871471592</v>
       </c>
       <c r="AC18" t="n">
-        <v>0.0110293424850971</v>
+        <v>0.0702633737837256</v>
       </c>
       <c r="AD18" t="n">
-        <v>0.01063639032721308</v>
+        <v>0.08286468556268357</v>
       </c>
       <c r="AE18" t="n">
-        <v>0.007642180988752406</v>
+        <v>0.08538738613146225</v>
       </c>
       <c r="AF18" t="n">
-        <v>0.05319598185293094</v>
+        <v>0.01745742091080034</v>
       </c>
       <c r="AG18" t="n">
-        <v>0.03565476061039735</v>
+        <v>0.08314816830742024</v>
       </c>
       <c r="AH18" t="n">
-        <v>-0.002855643521567395</v>
+        <v>-0.01068220093323061</v>
       </c>
     </row>
     <row r="19">
@@ -2490,94 +2490,94 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0.5984791091516836</v>
+        <v>1.01930461780957</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0006005132997851088</v>
+        <v>0.03012960060857827</v>
       </c>
       <c r="G19" t="n">
-        <v>0.07707424349324499</v>
+        <v>0.05148307033274017</v>
       </c>
       <c r="H19" t="n">
-        <v>0.02889978937621746</v>
+        <v>0.02254183349857532</v>
       </c>
       <c r="I19" t="n">
-        <v>0.04528322852420805</v>
+        <v>0.05931201350359255</v>
       </c>
       <c r="J19" t="n">
-        <v>0.01625616132472466</v>
+        <v>0.00559034994877803</v>
       </c>
       <c r="K19" t="n">
-        <v>0.03894222999693189</v>
+        <v>0.05828920647817946</v>
       </c>
       <c r="L19" t="n">
-        <v>0.05436651387333077</v>
+        <v>0.008972353071625533</v>
       </c>
       <c r="M19" t="n">
-        <v>0.04990966133042484</v>
+        <v>0.006404822183406168</v>
       </c>
       <c r="N19" t="n">
-        <v>0.04456954712079407</v>
+        <v>0.03512691671135986</v>
       </c>
       <c r="O19" t="n">
-        <v>0.01192120404005504</v>
+        <v>0.04239352879475713</v>
       </c>
       <c r="P19" t="n">
-        <v>0.005731500863042908</v>
+        <v>0.04236397390050493</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.01985915891581725</v>
+        <v>0.01997261564128315</v>
       </c>
       <c r="R19" t="n">
-        <v>0.06561166448810386</v>
+        <v>0.0003220875807048054</v>
       </c>
       <c r="S19" t="n">
-        <v>0.002655695977966642</v>
+        <v>0.05691441427166419</v>
       </c>
       <c r="T19" t="n">
-        <v>0.06285373476204993</v>
+        <v>0.02594343367812569</v>
       </c>
       <c r="U19" t="n">
-        <v>0.01983454672245225</v>
+        <v>0.0002449320716181158</v>
       </c>
       <c r="V19" t="n">
-        <v>0.06986723587424556</v>
+        <v>0.07832546499669696</v>
       </c>
       <c r="W19" t="n">
-        <v>0.01523069198163583</v>
+        <v>0.01579947670912987</v>
       </c>
       <c r="X19" t="n">
-        <v>0.03690271214884307</v>
+        <v>0.07789662279276929</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.02651279967681248</v>
+        <v>0.005914459115607134</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.004348303127249321</v>
+        <v>0.05377426749337384</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.00888916058713668</v>
+        <v>0.07593825573227629</v>
       </c>
       <c r="AB19" t="n">
-        <v>0.006682106150126921</v>
+        <v>0.008640366537241538</v>
       </c>
       <c r="AC19" t="n">
-        <v>0.08135032964849072</v>
+        <v>0.05979767426108988</v>
       </c>
       <c r="AD19" t="n">
-        <v>0.04503960333882547</v>
+        <v>0.01173104026388052</v>
       </c>
       <c r="AE19" t="n">
-        <v>0.07160469815949459</v>
+        <v>0.00907024894214053</v>
       </c>
       <c r="AF19" t="n">
-        <v>0.07031613126287631</v>
+        <v>0.07823942713527855</v>
       </c>
       <c r="AG19" t="n">
-        <v>0.01888683393511328</v>
+        <v>0.05886754374502214</v>
       </c>
       <c r="AH19" t="n">
-        <v>0.001865998991759696</v>
+        <v>0.0425761115824068</v>
       </c>
     </row>
     <row r="20">
@@ -2600,94 +2600,94 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0.1546416711675009</v>
+        <v>0.1365849033300527</v>
       </c>
       <c r="F20" t="n">
-        <v>0.03842067064978163</v>
+        <v>0.06565210648417252</v>
       </c>
       <c r="G20" t="n">
-        <v>0.06519293313539584</v>
+        <v>0.008494115921410514</v>
       </c>
       <c r="H20" t="n">
-        <v>0.05255371341405036</v>
+        <v>0.03392663236732271</v>
       </c>
       <c r="I20" t="n">
-        <v>0.03109215317393121</v>
+        <v>0.06724340427420725</v>
       </c>
       <c r="J20" t="n">
-        <v>0.008349922867984248</v>
+        <v>0.02730495824226693</v>
       </c>
       <c r="K20" t="n">
-        <v>0.004743310567110995</v>
+        <v>0.007805815406175419</v>
       </c>
       <c r="L20" t="n">
-        <v>0.05400313785329459</v>
+        <v>0.03546202142328532</v>
       </c>
       <c r="M20" t="n">
-        <v>0.0090592825505145</v>
+        <v>0.01223258781285484</v>
       </c>
       <c r="N20" t="n">
-        <v>0.03299850349992774</v>
+        <v>0.04122450606829856</v>
       </c>
       <c r="O20" t="n">
-        <v>0.004300372463959979</v>
+        <v>0.07178607273030263</v>
       </c>
       <c r="P20" t="n">
-        <v>0.003037257441305696</v>
+        <v>0.00249393797820058</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.05651343480710021</v>
+        <v>0.07371650550330806</v>
       </c>
       <c r="R20" t="n">
-        <v>0.04736427996555877</v>
+        <v>0.01166531361191136</v>
       </c>
       <c r="S20" t="n">
-        <v>0.06102275321638282</v>
+        <v>0.06329655517335649</v>
       </c>
       <c r="T20" t="n">
-        <v>0.03767929057593548</v>
+        <v>0.05735774060325825</v>
       </c>
       <c r="U20" t="n">
-        <v>0.05117934106089889</v>
+        <v>0.02597158967960929</v>
       </c>
       <c r="V20" t="n">
-        <v>0.06978358443321772</v>
+        <v>0.017809373840911</v>
       </c>
       <c r="W20" t="n">
-        <v>0.00232046073946073</v>
+        <v>0.005510871396193508</v>
       </c>
       <c r="X20" t="n">
-        <v>0.05990194108286163</v>
+        <v>0.009081481540119198</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.008092512610431807</v>
+        <v>0.04448019902437132</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.008474940468805764</v>
+        <v>0.04015232661759733</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.02264596834681881</v>
+        <v>0.0003569853682037948</v>
       </c>
       <c r="AB20" t="n">
-        <v>0.06747951366299509</v>
+        <v>0.05453702754062708</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.05584189699473479</v>
+        <v>0.04376376342744113</v>
       </c>
       <c r="AD20" t="n">
-        <v>0.01715174205979996</v>
+        <v>0.009665066569048388</v>
       </c>
       <c r="AE20" t="n">
-        <v>0.04649314804536283</v>
+        <v>0.0698198343515089</v>
       </c>
       <c r="AF20" t="n">
-        <v>0.03109764483611836</v>
+        <v>0.05134169452688516</v>
       </c>
       <c r="AG20" t="n">
-        <v>0.05320628947625947</v>
+        <v>0.04784751251715256</v>
       </c>
       <c r="AH20" t="n">
-        <v>0.09873453375979419</v>
+        <v>0.1244012655429656</v>
       </c>
     </row>
     <row r="21">
@@ -2710,94 +2710,94 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>0.1964227262623104</v>
+        <v>0.1589658760932046</v>
       </c>
       <c r="F21" t="n">
-        <v>0.04084430465925844</v>
+        <v>0.03518133954220475</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04417585913949708</v>
+        <v>0.05239676916870095</v>
       </c>
       <c r="H21" t="n">
-        <v>0.01122332185407516</v>
+        <v>0.02307126369614805</v>
       </c>
       <c r="I21" t="n">
-        <v>0.001761755377874918</v>
+        <v>0.006271992991349258</v>
       </c>
       <c r="J21" t="n">
-        <v>0.03240257961546063</v>
+        <v>0.06209391411915446</v>
       </c>
       <c r="K21" t="n">
-        <v>0.005928871502460076</v>
+        <v>0.001081844336534578</v>
       </c>
       <c r="L21" t="n">
-        <v>0.04463745630302628</v>
+        <v>0.02508506484200816</v>
       </c>
       <c r="M21" t="n">
-        <v>0.08761002694540586</v>
+        <v>0.01774587195708928</v>
       </c>
       <c r="N21" t="n">
-        <v>0.01159261434611986</v>
+        <v>0.06037155321188613</v>
       </c>
       <c r="O21" t="n">
-        <v>0.03853755917950288</v>
+        <v>0.05588295902940126</v>
       </c>
       <c r="P21" t="n">
-        <v>0.003209071698661416</v>
+        <v>0.0004896743547679707</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.0739690328575083</v>
+        <v>0.04366225992807609</v>
       </c>
       <c r="R21" t="n">
-        <v>0.0765139445646989</v>
+        <v>0.003947996235793421</v>
       </c>
       <c r="S21" t="n">
-        <v>0.05451592780368082</v>
+        <v>0.02732327232735573</v>
       </c>
       <c r="T21" t="n">
-        <v>0.006027406761311629</v>
+        <v>0.02400458772613295</v>
       </c>
       <c r="U21" t="n">
-        <v>0.00798799511478142</v>
+        <v>0.05878060813561851</v>
       </c>
       <c r="V21" t="n">
-        <v>0.0615830413431675</v>
+        <v>0.04885396685356919</v>
       </c>
       <c r="W21" t="n">
-        <v>0.01406226354304584</v>
+        <v>0.0002622043168331958</v>
       </c>
       <c r="X21" t="n">
-        <v>0.05859710655244144</v>
+        <v>0.05147565090247195</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.01161246548232347</v>
+        <v>0.06356104200458136</v>
       </c>
       <c r="Z21" t="n">
-        <v>0.02775415397101258</v>
+        <v>0.005907249750284353</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.01407413199976786</v>
+        <v>0.01295321256554587</v>
       </c>
       <c r="AB21" t="n">
-        <v>0.01104586011459751</v>
+        <v>0.03808087913482278</v>
       </c>
       <c r="AC21" t="n">
-        <v>0.06883663441833664</v>
+        <v>0.01714210941023988</v>
       </c>
       <c r="AD21" t="n">
-        <v>0.09075462400571802</v>
+        <v>0.07115562450793628</v>
       </c>
       <c r="AE21" t="n">
-        <v>0.04892968551699799</v>
+        <v>0.06125794919371925</v>
       </c>
       <c r="AF21" t="n">
-        <v>0.02517420264957917</v>
+        <v>0.07396992349217829</v>
       </c>
       <c r="AG21" t="n">
-        <v>0.0266381026796884</v>
+        <v>0.0579892162655962</v>
       </c>
       <c r="AH21" t="n">
-        <v>0.1450757409329498</v>
+        <v>0.1338669105052991</v>
       </c>
     </row>
     <row r="22">
@@ -2820,94 +2820,94 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0.1691243457862273</v>
+        <v>0.1581030977908992</v>
       </c>
       <c r="F22" t="n">
-        <v>0.05284502860771156</v>
+        <v>0.04088342911259046</v>
       </c>
       <c r="G22" t="n">
-        <v>0.06105340888631552</v>
+        <v>0.00463102631033246</v>
       </c>
       <c r="H22" t="n">
-        <v>0.03857464362348982</v>
+        <v>0.02223195350379043</v>
       </c>
       <c r="I22" t="n">
-        <v>0.06200448449503707</v>
+        <v>0.04353935876711185</v>
       </c>
       <c r="J22" t="n">
-        <v>0.0003609239714567164</v>
+        <v>0.00622273726276191</v>
       </c>
       <c r="K22" t="n">
-        <v>0.02643746508897936</v>
+        <v>0.06162838458904144</v>
       </c>
       <c r="L22" t="n">
-        <v>0.03186099508024443</v>
+        <v>0.07033240396622936</v>
       </c>
       <c r="M22" t="n">
-        <v>0.05302290533589379</v>
+        <v>0.07111872452966055</v>
       </c>
       <c r="N22" t="n">
-        <v>0.04137503307426971</v>
+        <v>0.04825520216418924</v>
       </c>
       <c r="O22" t="n">
-        <v>0.04777664445665612</v>
+        <v>0.06852141085884141</v>
       </c>
       <c r="P22" t="n">
-        <v>0.02341790196148753</v>
+        <v>0.005886438751862485</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.01229376200849007</v>
+        <v>0.01831312296212823</v>
       </c>
       <c r="R22" t="n">
-        <v>0.001774287273087349</v>
+        <v>0.03843787021281266</v>
       </c>
       <c r="S22" t="n">
-        <v>0.02550134492087071</v>
+        <v>0.07124394485367631</v>
       </c>
       <c r="T22" t="n">
-        <v>0.05815000105687418</v>
+        <v>0.03143333525558529</v>
       </c>
       <c r="U22" t="n">
-        <v>0.006547664622924234</v>
+        <v>0.009268369189725843</v>
       </c>
       <c r="V22" t="n">
-        <v>0.04179872236964367</v>
+        <v>0.005676732871078035</v>
       </c>
       <c r="W22" t="n">
-        <v>0.06052211818755868</v>
+        <v>0.004330094242803742</v>
       </c>
       <c r="X22" t="n">
-        <v>0.0393314183260392</v>
+        <v>0.06563685794838285</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.03140044549032212</v>
+        <v>0.0009744068845550408</v>
       </c>
       <c r="Z22" t="n">
-        <v>0.003588521767243387</v>
+        <v>0.0002264536582591255</v>
       </c>
       <c r="AA22" t="n">
-        <v>0.04580462820302362</v>
+        <v>0.0669383555880774</v>
       </c>
       <c r="AB22" t="n">
-        <v>0.02835341757490358</v>
+        <v>0.05546709510733599</v>
       </c>
       <c r="AC22" t="n">
-        <v>0.06233107671476817</v>
+        <v>0.03100426342939118</v>
       </c>
       <c r="AD22" t="n">
-        <v>0.002852940120280845</v>
+        <v>0.004637282597250907</v>
       </c>
       <c r="AE22" t="n">
-        <v>0.05378038712509932</v>
+        <v>0.05732396032248834</v>
       </c>
       <c r="AF22" t="n">
-        <v>0.05370475519225925</v>
+        <v>0.04132633295669314</v>
       </c>
       <c r="AG22" t="n">
-        <v>0.03353507446506997</v>
+        <v>0.05451045210334428</v>
       </c>
       <c r="AH22" t="n">
-        <v>0.189675963253995</v>
+        <v>0.1835804114812105</v>
       </c>
     </row>
     <row r="23">
@@ -2930,94 +2930,94 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>1.24725278923456</v>
+        <v>0.4147885239897423</v>
       </c>
       <c r="F23" t="n">
-        <v>0.06563801221446267</v>
+        <v>0.03992853243457473</v>
       </c>
       <c r="G23" t="n">
-        <v>0.00509830189040993</v>
+        <v>0.0801391404635188</v>
       </c>
       <c r="H23" t="n">
-        <v>0.07928990225784489</v>
+        <v>0.008062409826427298</v>
       </c>
       <c r="I23" t="n">
-        <v>0.02100752251253146</v>
+        <v>0.03577962747208752</v>
       </c>
       <c r="J23" t="n">
-        <v>0.006206572072404364</v>
+        <v>0.06385785054923296</v>
       </c>
       <c r="K23" t="n">
-        <v>0.06446643706466534</v>
+        <v>0.00970901313564158</v>
       </c>
       <c r="L23" t="n">
-        <v>0.06028452860214748</v>
+        <v>0.01838448166894566</v>
       </c>
       <c r="M23" t="n">
-        <v>0.05698145143072452</v>
+        <v>0.03754859340943797</v>
       </c>
       <c r="N23" t="n">
-        <v>0.02408249862770056</v>
+        <v>0.0301366944940822</v>
       </c>
       <c r="O23" t="n">
-        <v>0.01211479537857768</v>
+        <v>0.06404483073908711</v>
       </c>
       <c r="P23" t="n">
-        <v>0.03374680239668137</v>
+        <v>0.01878717423453746</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.04742642017232443</v>
+        <v>0.03061901343781285</v>
       </c>
       <c r="R23" t="n">
-        <v>0.05656574764788155</v>
+        <v>0.0763028449014554</v>
       </c>
       <c r="S23" t="n">
-        <v>0.03012669529277231</v>
+        <v>0.04167740244844562</v>
       </c>
       <c r="T23" t="n">
-        <v>0.0007940121706434152</v>
+        <v>0.05222601196015195</v>
       </c>
       <c r="U23" t="n">
-        <v>0.001938493290939358</v>
+        <v>0.001283350175690769</v>
       </c>
       <c r="V23" t="n">
-        <v>0.03159246099172534</v>
+        <v>0.009928187952935602</v>
       </c>
       <c r="W23" t="n">
-        <v>0.006914911957813975</v>
+        <v>0.04357985490625112</v>
       </c>
       <c r="X23" t="n">
-        <v>0.03400619906078972</v>
+        <v>0.0441438977890682</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.0451248037527196</v>
+        <v>0.0514585526824656</v>
       </c>
       <c r="Z23" t="n">
-        <v>0.01491241423367344</v>
+        <v>0.02056076742917034</v>
       </c>
       <c r="AA23" t="n">
-        <v>0.07785114492458035</v>
+        <v>0.03869971537083731</v>
       </c>
       <c r="AB23" t="n">
-        <v>0.04431039388276441</v>
+        <v>0.02446058856320677</v>
       </c>
       <c r="AC23" t="n">
-        <v>0.005921440105238014</v>
+        <v>0.005304500717997561</v>
       </c>
       <c r="AD23" t="n">
-        <v>0.08910993638213385</v>
+        <v>0.08390249558336424</v>
       </c>
       <c r="AE23" t="n">
-        <v>0.0386590179421132</v>
+        <v>0.02374262338530023</v>
       </c>
       <c r="AF23" t="n">
-        <v>0.03145754708740003</v>
+        <v>0.006759823937770948</v>
       </c>
       <c r="AG23" t="n">
-        <v>0.01437153665633682</v>
+        <v>0.03897202033050214</v>
       </c>
       <c r="AH23" t="n">
-        <v>0.1963916179169492</v>
+        <v>0.2069301937187523</v>
       </c>
     </row>
     <row r="24">
@@ -3040,94 +3040,94 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>0.171532025976935</v>
+        <v>0.1980694428948383</v>
       </c>
       <c r="F24" t="n">
-        <v>0.03703215452887988</v>
+        <v>0.06429440650462652</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03973817490163957</v>
+        <v>0.05674948150311536</v>
       </c>
       <c r="H24" t="n">
-        <v>0.02691677590578567</v>
+        <v>0.003440200165623856</v>
       </c>
       <c r="I24" t="n">
-        <v>0.01457196643181348</v>
+        <v>0.0361761014695221</v>
       </c>
       <c r="J24" t="n">
-        <v>0.04483717679542147</v>
+        <v>0.04543676544451698</v>
       </c>
       <c r="K24" t="n">
-        <v>0.02771009961997666</v>
+        <v>0.02785428476130825</v>
       </c>
       <c r="L24" t="n">
-        <v>0.006190533737967656</v>
+        <v>0.004390005563666682</v>
       </c>
       <c r="M24" t="n">
-        <v>0.002101675808641129</v>
+        <v>0.01271387202649738</v>
       </c>
       <c r="N24" t="n">
-        <v>0.0459927078031954</v>
+        <v>0.00589078302958254</v>
       </c>
       <c r="O24" t="n">
-        <v>0.004284505140700679</v>
+        <v>0.01864508356237158</v>
       </c>
       <c r="P24" t="n">
-        <v>0.000321570644855213</v>
+        <v>0.01821600432176402</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.04902274866298905</v>
+        <v>0.0562212981026261</v>
       </c>
       <c r="R24" t="n">
-        <v>0.0646325916656964</v>
+        <v>0.03049861884927076</v>
       </c>
       <c r="S24" t="n">
-        <v>0.06397354918173431</v>
+        <v>0.04220700629354886</v>
       </c>
       <c r="T24" t="n">
-        <v>0.04202006078460972</v>
+        <v>0.03287212723263639</v>
       </c>
       <c r="U24" t="n">
-        <v>0.01149897611283739</v>
+        <v>0.06169586321124593</v>
       </c>
       <c r="V24" t="n">
-        <v>0.06834921916527487</v>
+        <v>0.04121954143108798</v>
       </c>
       <c r="W24" t="n">
-        <v>0.04943309727002226</v>
+        <v>0.06452283435444145</v>
       </c>
       <c r="X24" t="n">
-        <v>0.06152671529237151</v>
+        <v>0.05778103520795179</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.03241856350481721</v>
+        <v>0.02357373603828207</v>
       </c>
       <c r="Z24" t="n">
-        <v>0.06238043335099458</v>
+        <v>0.06521293601939089</v>
       </c>
       <c r="AA24" t="n">
-        <v>0.06994029950544015</v>
+        <v>0.03445038034021702</v>
       </c>
       <c r="AB24" t="n">
-        <v>0.04154940347197061</v>
+        <v>0.04558262221226864</v>
       </c>
       <c r="AC24" t="n">
-        <v>0.003450990855689449</v>
+        <v>0.003801128791926706</v>
       </c>
       <c r="AD24" t="n">
-        <v>0.02417483673640396</v>
+        <v>0.03301974380098167</v>
       </c>
       <c r="AE24" t="n">
-        <v>0.05512704687250352</v>
+        <v>0.05055432918918359</v>
       </c>
       <c r="AF24" t="n">
-        <v>0.042906273245491</v>
+        <v>0.05859364188397882</v>
       </c>
       <c r="AG24" t="n">
-        <v>0.007897853002277307</v>
+        <v>0.004386168688366009</v>
       </c>
       <c r="AH24" t="n">
-        <v>-0.009526415772110768</v>
+        <v>-0.01935087340486509</v>
       </c>
     </row>
     <row r="25">
@@ -3150,94 +3150,94 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>0.8975736319152364</v>
+        <v>0.689618896852464</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0139324513718298</v>
+        <v>0.04195472788798339</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02900991024472222</v>
+        <v>0.03761870228029486</v>
       </c>
       <c r="H25" t="n">
-        <v>0.02248950855063898</v>
+        <v>0.05793513958803108</v>
       </c>
       <c r="I25" t="n">
-        <v>0.01404675103247998</v>
+        <v>0.05219378101109014</v>
       </c>
       <c r="J25" t="n">
-        <v>0.05772875086162413</v>
+        <v>0.01747425611380249</v>
       </c>
       <c r="K25" t="n">
-        <v>0.04804432512188942</v>
+        <v>0.08186278504671024</v>
       </c>
       <c r="L25" t="n">
-        <v>0.003787716178768858</v>
+        <v>0.0006588719545298332</v>
       </c>
       <c r="M25" t="n">
-        <v>0.04661795458140989</v>
+        <v>0.001553351323137403</v>
       </c>
       <c r="N25" t="n">
-        <v>0.03032012642457092</v>
+        <v>0.001947858502619025</v>
       </c>
       <c r="O25" t="n">
-        <v>0.04092735469013523</v>
+        <v>0.01754784465852097</v>
       </c>
       <c r="P25" t="n">
-        <v>0.08677632542064306</v>
+        <v>0.01115194215412053</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.0331288103823105</v>
+        <v>0.076193889843989</v>
       </c>
       <c r="R25" t="n">
-        <v>0.03362068357366953</v>
+        <v>0.01405367323891314</v>
       </c>
       <c r="S25" t="n">
-        <v>0.007260633621228532</v>
+        <v>0.001579395020842096</v>
       </c>
       <c r="T25" t="n">
-        <v>0.03141124357590492</v>
+        <v>0.05492745594022664</v>
       </c>
       <c r="U25" t="n">
-        <v>0.02931025893542606</v>
+        <v>0.0184261933096907</v>
       </c>
       <c r="V25" t="n">
-        <v>0.001846383867616487</v>
+        <v>0.02950301738088708</v>
       </c>
       <c r="W25" t="n">
-        <v>0.06323440585266271</v>
+        <v>0.08566720999734391</v>
       </c>
       <c r="X25" t="n">
-        <v>0.07587918021334067</v>
+        <v>0.06636602686820706</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.08543240815565524</v>
+        <v>0.008975963810656549</v>
       </c>
       <c r="Z25" t="n">
-        <v>0.02110036618657018</v>
+        <v>0.0222219217194085</v>
       </c>
       <c r="AA25" t="n">
-        <v>0.04318890790427738</v>
+        <v>0.07894732192438701</v>
       </c>
       <c r="AB25" t="n">
-        <v>0.05486692212158062</v>
+        <v>0.02337999734395367</v>
       </c>
       <c r="AC25" t="n">
-        <v>0.0003519927424148013</v>
+        <v>0.01375425148913307</v>
       </c>
       <c r="AD25" t="n">
-        <v>0.01006973965497476</v>
+        <v>0.07936700331205443</v>
       </c>
       <c r="AE25" t="n">
-        <v>0.01711663865213195</v>
+        <v>0.01313438395694549</v>
       </c>
       <c r="AF25" t="n">
-        <v>0.08597675100476758</v>
+        <v>0.03879022343118931</v>
       </c>
       <c r="AG25" t="n">
-        <v>0.01252349907675576</v>
+        <v>0.05281281089133243</v>
       </c>
       <c r="AH25" t="n">
-        <v>-0.03330076571945329</v>
+        <v>0.003654445474025173</v>
       </c>
     </row>
     <row r="26">
@@ -3260,94 +3260,94 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>0.1000467245267308</v>
+        <v>0.1018440438559208</v>
       </c>
       <c r="F26" t="n">
-        <v>0.03687253836630972</v>
+        <v>0.00458755762583742</v>
       </c>
       <c r="G26" t="n">
-        <v>0.008640827486984025</v>
+        <v>0.00777020601957175</v>
       </c>
       <c r="H26" t="n">
-        <v>0.07590486624082557</v>
+        <v>0.04665542328319877</v>
       </c>
       <c r="I26" t="n">
-        <v>0.04027758119491405</v>
+        <v>0.06319306156664189</v>
       </c>
       <c r="J26" t="n">
-        <v>0.02684071794477039</v>
+        <v>0.004250483760749706</v>
       </c>
       <c r="K26" t="n">
-        <v>0.002288601521545272</v>
+        <v>0.009605764312859297</v>
       </c>
       <c r="L26" t="n">
-        <v>0.006917015376065073</v>
+        <v>0.008639206785544189</v>
       </c>
       <c r="M26" t="n">
-        <v>0.05828945452126945</v>
+        <v>0.06569396363815957</v>
       </c>
       <c r="N26" t="n">
-        <v>0.0005661108236015868</v>
+        <v>0.04477724463456267</v>
       </c>
       <c r="O26" t="n">
-        <v>0.004695716998159735</v>
+        <v>0.05424575365346065</v>
       </c>
       <c r="P26" t="n">
-        <v>0.06208536248664107</v>
+        <v>0.03511385563738639</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.07794488024590786</v>
+        <v>0.06152865596950146</v>
       </c>
       <c r="R26" t="n">
-        <v>0.01484548419933675</v>
+        <v>0.02437957763377328</v>
       </c>
       <c r="S26" t="n">
-        <v>0.0348028282251115</v>
+        <v>0.001400398818283133</v>
       </c>
       <c r="T26" t="n">
-        <v>0.03614277674941885</v>
+        <v>0.0647198074870107</v>
       </c>
       <c r="U26" t="n">
-        <v>0.03293283545411727</v>
+        <v>0.04885423608280665</v>
       </c>
       <c r="V26" t="n">
-        <v>0.06299586141628645</v>
+        <v>0.06088078274997551</v>
       </c>
       <c r="W26" t="n">
-        <v>0.06817320268428874</v>
+        <v>0.04228550641837028</v>
       </c>
       <c r="X26" t="n">
-        <v>0.0368632810692098</v>
+        <v>0.04028225899889894</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.02826482290474889</v>
+        <v>0.05000749559318889</v>
       </c>
       <c r="Z26" t="n">
-        <v>0.01003608866617704</v>
+        <v>0.01864552939765713</v>
       </c>
       <c r="AA26" t="n">
-        <v>0.02965774142984516</v>
+        <v>0.02642759801522739</v>
       </c>
       <c r="AB26" t="n">
-        <v>0.07207726039876784</v>
+        <v>0.03449487897059789</v>
       </c>
       <c r="AC26" t="n">
-        <v>0.05827704444952581</v>
+        <v>0.06160395195396675</v>
       </c>
       <c r="AD26" t="n">
-        <v>0.0004080403462358354</v>
+        <v>0.03589414094893137</v>
       </c>
       <c r="AE26" t="n">
-        <v>0.07298563077196595</v>
+        <v>0.06076022097890632</v>
       </c>
       <c r="AF26" t="n">
-        <v>0.03050737715029586</v>
+        <v>0.002203158858505308</v>
       </c>
       <c r="AG26" t="n">
-        <v>0.009706050877674389</v>
+        <v>0.02109928020642672</v>
       </c>
       <c r="AH26" t="n">
-        <v>0.1917716490241828</v>
+        <v>0.185242108368188</v>
       </c>
     </row>
     <row r="27">
@@ -3370,94 +3370,94 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>0.1160126628161951</v>
+        <v>0.1257511419463156</v>
       </c>
       <c r="F27" t="n">
-        <v>0.07470703556304706</v>
+        <v>0.08184458335479546</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02662440243007969</v>
+        <v>0.009635191527974886</v>
       </c>
       <c r="H27" t="n">
-        <v>0.08002137151715401</v>
+        <v>0.06207463431538513</v>
       </c>
       <c r="I27" t="n">
-        <v>0.07360768873119292</v>
+        <v>0.079654895992901</v>
       </c>
       <c r="J27" t="n">
-        <v>0.02404753147775424</v>
+        <v>0.008088356222330412</v>
       </c>
       <c r="K27" t="n">
-        <v>0.04239396030411959</v>
+        <v>0.07751150958750265</v>
       </c>
       <c r="L27" t="n">
-        <v>0.06126287028592332</v>
+        <v>0.02645049693349522</v>
       </c>
       <c r="M27" t="n">
-        <v>0.002824531992126881</v>
+        <v>0.01109357429734598</v>
       </c>
       <c r="N27" t="n">
-        <v>0.0270081429932129</v>
+        <v>0.05906121397042428</v>
       </c>
       <c r="O27" t="n">
-        <v>0.007140868718748915</v>
+        <v>0.009119354461449819</v>
       </c>
       <c r="P27" t="n">
-        <v>0.06746420443766671</v>
+        <v>0.08223675615494126</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.05873670989024189</v>
+        <v>0.00865344346447957</v>
       </c>
       <c r="R27" t="n">
-        <v>0.01522076399027339</v>
+        <v>0.00337672035334567</v>
       </c>
       <c r="S27" t="n">
-        <v>0.007024388866766943</v>
+        <v>0.02448267026645785</v>
       </c>
       <c r="T27" t="n">
-        <v>0.06544655437701345</v>
+        <v>0.004691669519411404</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01445776629854343</v>
+        <v>0.009782929707494933</v>
       </c>
       <c r="V27" t="n">
-        <v>0.08054099495536915</v>
+        <v>0.0007609476561396784</v>
       </c>
       <c r="W27" t="n">
-        <v>0.006254732668051743</v>
+        <v>0.02935705547529536</v>
       </c>
       <c r="X27" t="n">
-        <v>0.02707631679366309</v>
+        <v>0.02669446956182461</v>
       </c>
       <c r="Y27" t="n">
-        <v>0.07707260472136322</v>
+        <v>0.04952494118992433</v>
       </c>
       <c r="Z27" t="n">
-        <v>0.05057731326787132</v>
+        <v>0.0613801388423541</v>
       </c>
       <c r="AA27" t="n">
-        <v>0.0233252586642534</v>
+        <v>0.0206268688522745</v>
       </c>
       <c r="AB27" t="n">
-        <v>0.03058826124884229</v>
+        <v>0.003358415748147457</v>
       </c>
       <c r="AC27" t="n">
-        <v>0.01575010281938008</v>
+        <v>0.04270320166631655</v>
       </c>
       <c r="AD27" t="n">
-        <v>0.01477870511777488</v>
+        <v>0.07787684690970896</v>
       </c>
       <c r="AE27" t="n">
-        <v>0.006557822107092863</v>
+        <v>0.01013638553757612</v>
       </c>
       <c r="AF27" t="n">
-        <v>0.0134033626533464</v>
+        <v>0.08403350316554464</v>
       </c>
       <c r="AG27" t="n">
-        <v>0.006085733109125995</v>
+        <v>0.03578922526515817</v>
       </c>
       <c r="AH27" t="n">
-        <v>0.2238005697415886</v>
+        <v>0.2048634857006695</v>
       </c>
     </row>
     <row r="28">
@@ -3480,94 +3480,94 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>0.1496185289101025</v>
+        <v>0.1610158365434272</v>
       </c>
       <c r="F28" t="n">
-        <v>0.01578726679649597</v>
+        <v>0.01970803651240987</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03936671864278112</v>
+        <v>0.01051896503520232</v>
       </c>
       <c r="H28" t="n">
-        <v>0.08233343827170982</v>
+        <v>0.04053676997661004</v>
       </c>
       <c r="I28" t="n">
-        <v>0.01124246480972546</v>
+        <v>0.01327008729278894</v>
       </c>
       <c r="J28" t="n">
-        <v>0.001609861589892471</v>
+        <v>0.06375679908680704</v>
       </c>
       <c r="K28" t="n">
-        <v>0.05282476326316951</v>
+        <v>0.06493237542360225</v>
       </c>
       <c r="L28" t="n">
-        <v>0.08566979622143346</v>
+        <v>0.0307921410139081</v>
       </c>
       <c r="M28" t="n">
-        <v>0.01646510489117736</v>
+        <v>0.03336906550944858</v>
       </c>
       <c r="N28" t="n">
-        <v>0.07214313519725572</v>
+        <v>0.03258341346564365</v>
       </c>
       <c r="O28" t="n">
-        <v>0.03460406336688518</v>
+        <v>0.0585987353743933</v>
       </c>
       <c r="P28" t="n">
-        <v>0.0760043537489983</v>
+        <v>0.05724725886854594</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.0009653952971286744</v>
+        <v>0.004073928981005462</v>
       </c>
       <c r="R28" t="n">
-        <v>0.05089075324461524</v>
+        <v>0.02595650416570325</v>
       </c>
       <c r="S28" t="n">
-        <v>0.02232511483529316</v>
+        <v>0.03559334075836908</v>
       </c>
       <c r="T28" t="n">
-        <v>0.01109186342389746</v>
+        <v>0.05092471958713259</v>
       </c>
       <c r="U28" t="n">
-        <v>0.01184620057906478</v>
+        <v>0.01226318082371614</v>
       </c>
       <c r="V28" t="n">
-        <v>0.005940601786160076</v>
+        <v>0.005966580243518929</v>
       </c>
       <c r="W28" t="n">
-        <v>0.003739677785184833</v>
+        <v>0.003275224553158622</v>
       </c>
       <c r="X28" t="n">
-        <v>0.07446261092100405</v>
+        <v>0.0599165288710635</v>
       </c>
       <c r="Y28" t="n">
-        <v>0.07258061267073002</v>
+        <v>0.05018164518446295</v>
       </c>
       <c r="Z28" t="n">
-        <v>0.0009106377081220436</v>
+        <v>0.01264092727884779</v>
       </c>
       <c r="AA28" t="n">
-        <v>0.03513858438102521</v>
+        <v>0.062075671627115</v>
       </c>
       <c r="AB28" t="n">
-        <v>0.04400032447138225</v>
+        <v>0.02645307092094199</v>
       </c>
       <c r="AC28" t="n">
-        <v>0.03269349868794073</v>
+        <v>0.03874316763148015</v>
       </c>
       <c r="AD28" t="n">
-        <v>0.03712856209098181</v>
+        <v>0.0675744065689477</v>
       </c>
       <c r="AE28" t="n">
-        <v>0.06202842949332538</v>
+        <v>0.05354675878803706</v>
       </c>
       <c r="AF28" t="n">
-        <v>0.04178317846368589</v>
+        <v>0.06073863545127476</v>
       </c>
       <c r="AG28" t="n">
-        <v>0.004422987360934142</v>
+        <v>0.004762061005865095</v>
       </c>
       <c r="AH28" t="n">
-        <v>0.02228585007918493</v>
+        <v>0.04606343700052995</v>
       </c>
     </row>
     <row r="29">
@@ -3590,97 +3590,97 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>0.7111378526281447</v>
+        <v>0.2253333133587208</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0538767940859293</v>
+        <v>0.0505064613428485</v>
       </c>
       <c r="G29" t="n">
-        <v>0.06594883451404382</v>
+        <v>0.004564630984291562</v>
       </c>
       <c r="H29" t="n">
-        <v>0.08218326134457332</v>
+        <v>0.07439504688805997</v>
       </c>
       <c r="I29" t="n">
-        <v>0.03838326755732352</v>
+        <v>0.02418696543117817</v>
       </c>
       <c r="J29" t="n">
-        <v>0.00437318584364708</v>
+        <v>0.02961435255784306</v>
       </c>
       <c r="K29" t="n">
-        <v>0.003929836569261012</v>
+        <v>0.04761557177692715</v>
       </c>
       <c r="L29" t="n">
-        <v>0.04095446476824063</v>
+        <v>0.04416782247046759</v>
       </c>
       <c r="M29" t="n">
-        <v>0.02873487822601521</v>
+        <v>0.06513145141216636</v>
       </c>
       <c r="N29" t="n">
-        <v>0.04526509700181295</v>
+        <v>0.06849252694735664</v>
       </c>
       <c r="O29" t="n">
-        <v>0.06763966332213818</v>
+        <v>0.04463562437149358</v>
       </c>
       <c r="P29" t="n">
-        <v>0.002690404354398209</v>
+        <v>0.04926373522844241</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.0003088125230623025</v>
+        <v>0.01156751093526041</v>
       </c>
       <c r="R29" t="n">
-        <v>0.03909003470087888</v>
+        <v>0.02102583757726801</v>
       </c>
       <c r="S29" t="n">
-        <v>0.0004044696713653381</v>
+        <v>0.0033683208997377</v>
       </c>
       <c r="T29" t="n">
-        <v>0.04499151277728846</v>
+        <v>0.0480535848135791</v>
       </c>
       <c r="U29" t="n">
-        <v>0.01101480715247636</v>
+        <v>0.02870866848560628</v>
       </c>
       <c r="V29" t="n">
-        <v>0.0231377285010892</v>
+        <v>0.01049543936108689</v>
       </c>
       <c r="W29" t="n">
-        <v>0.004247823192325224</v>
+        <v>0.0153954585059833</v>
       </c>
       <c r="X29" t="n">
-        <v>0.02986733701397374</v>
+        <v>0.02797689537150255</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.01669107890779923</v>
+        <v>0.004940582968397777</v>
       </c>
       <c r="Z29" t="n">
-        <v>0.06330190705279656</v>
+        <v>0.0737541446429915</v>
       </c>
       <c r="AA29" t="n">
-        <v>0.06435784371913904</v>
+        <v>0.07128446220916967</v>
       </c>
       <c r="AB29" t="n">
-        <v>0.04975039529705114</v>
+        <v>0.0343478717532409</v>
       </c>
       <c r="AC29" t="n">
-        <v>0.01385210018208042</v>
+        <v>0.02570791530356278</v>
       </c>
       <c r="AD29" t="n">
-        <v>0.04640523371656701</v>
+        <v>0.05396392414054917</v>
       </c>
       <c r="AE29" t="n">
-        <v>0.004877210294622348</v>
+        <v>0.03710416360377065</v>
       </c>
       <c r="AF29" t="n">
-        <v>0.06724714742889606</v>
+        <v>0.01401210400993132</v>
       </c>
       <c r="AG29" t="n">
-        <v>0.08647487028120543</v>
+        <v>0.0157189260072871</v>
       </c>
       <c r="AH29" t="n">
-        <v>0.05635487996235866</v>
+        <v>0.09301504621873845</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>